--- a/Normal1Counted.xlsx
+++ b/Normal1Counted.xlsx
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>93255</v>
+        <v>89919</v>
       </c>
       <c r="Q13" t="n">
-        <v>20425</v>
+        <v>19771</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1562,11 +1562,15 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>373.02</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>81.7</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>359.676</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>79.084</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1648,10 +1652,12 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>53</v>
+        <v>232</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1726,11 +1732,15 @@
           <t>Variance</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>118110.099999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5380.09036144578</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>106535.27</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4940.16</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1808,11 +1818,15 @@
           <t>Standard Deviation</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>343.671500127665</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>73.3490992544951</v>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>326.39</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>70.28</t>
+        </is>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2124,7 +2138,11 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
         <v>10</v>
@@ -13745,21 +13763,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>מציעה, אימון תזונה בביתכם
-תמורת עזרה בסדר ובארגון
-אזור כפר ורדים -מעלות
-🍒</t>
+          <t>אשמח לתת ייעוץ משפטי 
+בתמורה למסאג 
+(עדיפות: תל אביב-חולון-בת ים- רמת גן)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Orit Levav</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -13775,7 +13792,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/559884587/?__cft__[0]=AZVM6GEY1NuflTuxYAKsn1FUrAexJHerX4n9WNoLCiHoXoUGu9pDqgTzhxH2npCvJ-_Psp9NvKo-b2c9O77NJ8zdg8CliVLClEsFfGFaLlGNFvpZBUcML5g4yozVN7upVLEgKWp6wak_r6oHvqoNB58Q_IwnXu6fnAka6Tk3n-7p4PWnkxgZ3__kAqTB2yt7zzvxTPSxlxopG0xNkhzbVwCq&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13790,10 +13807,10 @@
       </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -13806,10 +13823,10 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y181" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182">
@@ -13818,20 +13835,23 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>אשמח לתת ייעוץ משפטי 
-בתמורה למסאג 
-(עדיפות: תל אביב-חולון-בת ים- רמת גן)</t>
+          <t>מציעה את שירותיי כדולה ✨️
+נשים המעוניינות בליווי קשוב נשי ונעים לפני,במהלך וסוף הלידה.
+השירות מוצע גם בסל הלידה מהמדינה אך אני מציעה אותו כבארטר וסל הלידה נשמר לדברים נוספים 🍓🌱🌼
+אם מדבר אליכן או אליכם עבור נשותיכם היקרות
+דברו איתי באהבה 🩷
+נטע 0543373812</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>זכר</t>
+          <t>נקבה</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Anonymous participant</t>
+          <t>Ne Ti</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -13847,7 +13867,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/1139187225/?__cft__[0]=AZXvNi0E0DAcjwCjy2yoMgXBsBaLodL7HnqpixpkfM1Y29I1xNIgbIiqebnyDdzYsN0AfaH6kvqnpTc_Upn4DsGeeH0NQj-i4B7Cc-VFn6juJgVbVqxl80HP2Z4sWzvQI74_3LS60T0pHtflFPYSQJMqjNYEHjZoYJt3mk_QbluVkOMsn2p5YGF3b_fIcb2KQ7YfLo-A1maAIYwN_-VwyrcB&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13862,10 +13882,10 @@
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M182" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -13878,10 +13898,10 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Y182" t="n">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183">
@@ -13890,12 +13910,8 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>מציעה את שירותיי כדולה ✨️
-נשים המעוניינות בליווי קשוב נשי ונעים לפני,במהלך וסוף הלידה.
-השירות מוצע גם בסל הלידה מהמדינה אך אני מציעה אותו כבארטר וסל הלידה נשמר לדברים נוספים 🍓🌱🌼
-אם מדבר אליכן או אליכם עבור נשותיכם היקרות
-דברו איתי באהבה 🩷
-נטע 0543373812</t>
+          <t>היי חברים, מחפשת בארטר מסוג אחר הפעם, אני מתכננת להיות ביוני בחיפה וטרם מצאתי מקום נעים להתארח בו.
+אני טובה בלסדר חללים וארונות מציעה בתמורה את כישורי הארגון והסדר שלי, עיצוב חדרים לא מחייב קניית רהיטים חדשים וסידור ארונות בגדים כולל להיפטר מבגדים שלא משמשים אותנו יותר.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -13906,7 +13922,7 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ne Ti</t>
+          <t>Elleonora Ella</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -13922,7 +13938,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/1139187225/?__cft__[0]=AZXvNi0E0DAcjwCjy2yoMgXBsBaLodL7HnqpixpkfM1Y29I1xNIgbIiqebnyDdzYsN0AfaH6kvqnpTc_Upn4DsGeeH0NQj-i4B7Cc-VFn6juJgVbVqxl80HP2Z4sWzvQI74_3LS60T0pHtflFPYSQJMqjNYEHjZoYJt3mk_QbluVkOMsn2p5YGF3b_fIcb2KQ7YfLo-A1maAIYwN_-VwyrcB&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/1203447519/?__cft__[0]=AZXXZcmonySlmnkz1lMWRPQdyzSMiTjl8k00bb10FQQ_42WSXiZfOVuCGqp8oNSagtFszwqumh-1xASfJCef38braNc_DWLEyf3lhD725U0wTsUxDjpjNEyqWhjbYQ4Jl2Cx43CRejssASeru-N_fgl1O_OuB3kj1OLgKPfyUBljtFqVerB1cRtFiWl-LBc7IPhgN-Cn49uRWTcgbRG3UqS1&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13937,10 +13953,10 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M183" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -13953,10 +13969,10 @@
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y183" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184">
@@ -13965,8 +13981,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>היי חברים, מחפשת בארטר מסוג אחר הפעם, אני מתכננת להיות ביוני בחיפה וטרם מצאתי מקום נעים להתארח בו.
-אני טובה בלסדר חללים וארונות מציעה בתמורה את כישורי הארגון והסדר שלי, עיצוב חדרים לא מחייב קניית רהיטים חדשים וסידור ארונות בגדים כולל להיפטר מבגדים שלא משמשים אותנו יותר.</t>
+          <t>שמי אנה נעים להכיר 🙂
+מחפשת לעשות בארטר עם צלמת (אישה, סליחה לגברים שכאן).
+מה מי איפה כמה ולמה?
+לאחרונה סיימתי קורס קואוצ'ינג ו nlp, וב 28.6 אני מפיקה סדנת פיילוט של 3 שעות "יש לי אותי".
+See more</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -13977,7 +13996,7 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Elleonora Ella</t>
+          <t>Anna Lev</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -13993,7 +14012,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/1203447519/?__cft__[0]=AZXXZcmonySlmnkz1lMWRPQdyzSMiTjl8k00bb10FQQ_42WSXiZfOVuCGqp8oNSagtFszwqumh-1xASfJCef38braNc_DWLEyf3lhD725U0wTsUxDjpjNEyqWhjbYQ4Jl2Cx43CRejssASeru-N_fgl1O_OuB3kj1OLgKPfyUBljtFqVerB1cRtFiWl-LBc7IPhgN-Cn49uRWTcgbRG3UqS1&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/100001960923501/?__cft__[0]=AZWuVHVWaDfFPe_qsHK5QIRn--qVYJXyJngXqu5p8iLlin0a5eFIX0OeZVMOfsgqNebQviwcaujQ5UhzmjqExE3J2HnxaA8EDzA16kjDGgRebzrKVwhnFclYQHWQwS8-awrvspYrIr4yEAnq1l-j0psHAk0eQegNBKxVh3ji3d-3R1os6NMeIm68-0595X3xhk7LHga4WCO0sHXsBp_Qo3rDVBm3Q52FnommNyPw5Es4qJSwrQ1JNEtWUzsgQeIiI5M&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -14008,10 +14027,10 @@
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="M184" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -14024,10 +14043,10 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Y184" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185">
@@ -14036,11 +14055,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>שמי אנה נעים להכיר 🙂
-מחפשת לעשות בארטר עם צלמת (אישה, סליחה לגברים שכאן).
-מה מי איפה כמה ולמה?
-לאחרונה סיימתי קורס קואוצ'ינג ו nlp, וב 28.6 אני מפיקה סדנת פיילוט של 3 שעות "יש לי אותי".
-See more</t>
+          <t>חדשה כאן אשמח לברטר, אני מוכנה לעזור בארגון וסידור ארונות</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -14051,7 +14066,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Anna Lev</t>
+          <t>Gila Nahari</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -14067,7 +14082,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/100001960923501/?__cft__[0]=AZWuVHVWaDfFPe_qsHK5QIRn--qVYJXyJngXqu5p8iLlin0a5eFIX0OeZVMOfsgqNebQviwcaujQ5UhzmjqExE3J2HnxaA8EDzA16kjDGgRebzrKVwhnFclYQHWQwS8-awrvspYrIr4yEAnq1l-j0psHAk0eQegNBKxVh3ji3d-3R1os6NMeIm68-0595X3xhk7LHga4WCO0sHXsBp_Qo3rDVBm3Q52FnommNyPw5Es4qJSwrQ1JNEtWUzsgQeIiI5M&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/100000001321632/?__cft__[0]=AZVKNqQtnhbRZbwq6QtS5hOpE2nGyvTHK_R2nba5HFMG4qlIqnnU9PWgqpceUksLZvD4b57XYRVhvOnfvGbyfA56g70CWsjuYL7Q1hKjIopsv5cmNmRhAwa6kQaPG6-xSeBI1UYDGVb337jIe0IJHoZAxtdKDqPzU86Q2e4Yy7eZXrANs8_OoeXExgZbPTrtQAXAeV0oAaIZyCqI1i80PI63&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -14082,10 +14097,10 @@
       </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M185" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -14098,10 +14113,10 @@
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Y185" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186">
@@ -14110,18 +14125,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>חדשה כאן אשמח לברטר, אני מוכנה לעזור בארגון וסידור ארונות</t>
+          <t>מחפש עזרה בשיפור קורות חיים/מציאת עבודה
+מציע:
+-בנייית דף נחיתה
+-עזרה בשיווק ממומן/פייסבוק אינסטגרם
+-עזרה בכל מה שקשור למחשבים (טיפול בתקלות וכו)
+-עזרה בשימוש AI ליצירת תוכן לעסק</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Gila Nahari</t>
+          <t>Sharon Hazan</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -14137,7 +14157,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/100000001321632/?__cft__[0]=AZVKNqQtnhbRZbwq6QtS5hOpE2nGyvTHK_R2nba5HFMG4qlIqnnU9PWgqpceUksLZvD4b57XYRVhvOnfvGbyfA56g70CWsjuYL7Q1hKjIopsv5cmNmRhAwa6kQaPG6-xSeBI1UYDGVb337jIe0IJHoZAxtdKDqPzU86Q2e4Yy7eZXrANs8_OoeXExgZbPTrtQAXAeV0oAaIZyCqI1i80PI63&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/100025403105097/?__cft__[0]=AZU8P2Ar8bfDDVs7-sGAgXu6-s2fiMOvrk2SrTHWe3eu0CNDuiryfLXj_HVAVK_2YVYTkhoNoElZW6IvK6nIIeJIxtUiecn6SSWERKvtQU_Mv46oA9Sxh7r15MalUjjPhZJjigOCUFz-fCsGKWhPgG-kmEipKwG9bKuKDguhMHPyqDiZVuLOJOTXWVpFJoJdXloWP3db2YoNgskLlFO1isdp&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -14152,10 +14172,10 @@
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="M186" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -14168,10 +14188,10 @@
       <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Y186" t="n">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
@@ -14179,81 +14199,6 @@
         <v>186</v>
       </c>
       <c r="B187" t="inlineStr">
-        <is>
-          <t>מחפש עזרה בשיפור קורות חיים/מציאת עבודה
-מציע:
--בנייית דף נחיתה
--עזרה בשיווק ממומן/פייסבוק אינסטגרם
--עזרה בכל מה שקשור למחשבים (טיפול בתקלות וכו)
--עזרה בשימוש AI ליצירת תוכן לעסק</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Sharon Hazan</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">facebook / בארטר מהלב
-</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/100025403105097/?__cft__[0]=AZU8P2Ar8bfDDVs7-sGAgXu6-s2fiMOvrk2SrTHWe3eu0CNDuiryfLXj_HVAVK_2YVYTkhoNoElZW6IvK6nIIeJIxtUiecn6SSWERKvtQU_Mv46oA9Sxh7r15MalUjjPhZJjigOCUFz-fCsGKWhPgG-kmEipKwG9bKuKDguhMHPyqDiZVuLOJOTXWVpFJoJdXloWP3db2YoNgskLlFO1isdp&amp;__tn__=-UC%2CP-R</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>155</v>
-      </c>
-      <c r="M187" t="n">
-        <v>28</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
         <is>
           <t>היה לי את הבארטר הכי שווה ביקום!!
 Daniel Rozner
@@ -14272,15 +14217,87 @@
 תודה דניאל 🧚</t>
         </is>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>נקבה</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Turtur Sky</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">facebook / בארטר מהלב
+</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/265893208051540/user/1699775360/?__cft__[0]=AZVjaEPVqgAOPVhMY4VKlt91xhU6gZxfMvMeKmtARwTjAIvt-gZPEqQPD4X70YnMg0ymPTfTjTeMDzbajH9CaRqf39CnqAwkmZf6gw0Qg0C5JSRIGRtW1_RvUjH62eogoFnsG71RiBOum1NkX346MQd9uWJcspd1w95XbTMAcAA8OPEWIYXRjXd-t33RCU7-FRbu63y2znzxzceJeGA0s6PubEHp-7InSFNepb5iSmKY_w&amp;__tn__=-UC%2CP-R</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>501</v>
+      </c>
+      <c r="M187" t="n">
+        <v>119</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>119</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>נמצא ברחובות אשמח להדריך על טארוט, הרמטיקה ואלכימיה. ידע אזוטרי קדום, (לא פתיחה בקלפי טארוט ולא ניבוי עתידות) הדגש הוא על המשמעות המועברת דרך הסמלים. מי שמעוניין.ת אשמח אם תצרו קשר בפרטי. ❤️🎗️
+אשמח ללמוד משהו מעניין בתמורה🙏🏻
+אשמח להצעות בפרטי.</t>
+        </is>
+      </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Turtur Sky</t>
+          <t>Eddie Levin</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -14296,7 +14313,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/1699775360/?__cft__[0]=AZVjaEPVqgAOPVhMY4VKlt91xhU6gZxfMvMeKmtARwTjAIvt-gZPEqQPD4X70YnMg0ymPTfTjTeMDzbajH9CaRqf39CnqAwkmZf6gw0Qg0C5JSRIGRtW1_RvUjH62eogoFnsG71RiBOum1NkX346MQd9uWJcspd1w95XbTMAcAA8OPEWIYXRjXd-t33RCU7-FRbu63y2znzxzceJeGA0s6PubEHp-7InSFNepb5iSmKY_w&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.facebook.com/groups/265893208051540</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -14311,10 +14328,10 @@
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="M188" t="n">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -14327,10 +14344,10 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="n">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="Y188" t="n">
-        <v>501</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189">
@@ -14339,20 +14356,24 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>נמצא ברחובות אשמח להדריך על טארוט, הרמטיקה ואלכימיה. ידע אזוטרי קדום, (לא פתיחה בקלפי טארוט ולא ניבוי עתידות) הדגש הוא על המשמעות המועברת דרך הסמלים. מי שמעוניין.ת אשמח אם תצרו קשר בפרטי. ❤️🎗️
-אשמח ללמוד משהו מעניין בתמורה🙏🏻
-אשמח להצעות בפרטי.</t>
+          <t>טוב היאוש ניצח, יש המון דברים שאני טובה בהם, עריכת וידאו זה לא אחד מהם.
+אני מחפשת עורך וידאו לעשות פרסומת קצרה לסושיאלז לחנות יד שניה שלי.
+מה יכולה להציע בתמורה:
+- פירסינג (איזה שבא לכם)
+- עיצוב גרפי מכל סוג ( מעל 10 שנים בתחום)
+- הנחה לקעקוע בסטודיו 
+ועוד מלא דברים יצרתיים שונות (יוצרת בספוג, תופרת, עובדת בעץ, חיתוך בקריקאט וכיוב')</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>זכר</t>
+          <t>נקבה</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Eddie Levin</t>
+          <t>Kira Agur</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -14368,7 +14389,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540</t>
+          <t>https://www.facebook.com/groups/265893208051540/user/1250730921/?__cft__[0]=AZXn5lw57wnLRYtqTNUvrEQWpM0mfM4ohfFQQYTnWvgTMh7dj1xcA-3KviAzYAIeQbZY-v49_FPpRjA2R-f1Al746nAwuaJebXo40piGXaJRuFtwYTRtGpxWk0ORVL3NXzLqCj9y-NVddx9DB1n1xes69rCLZ2bfD5IJDeS3mfFxcIwLAILzFtKUVyG4G2kGzGJ7kQMTNeM5U_T42DJQKK8B&amp;__tn__=-UC%2CP-R</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -14383,10 +14404,10 @@
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="M189" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
@@ -14399,10 +14420,10 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="Y189" t="n">
-        <v>205</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190">
@@ -14411,40 +14432,39 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>טוב היאוש ניצח, יש המון דברים שאני טובה בהם, עריכת וידאו זה לא אחד מהם.
-אני מחפשת עורך וידאו לעשות פרסומת קצרה לסושיאלז לחנות יד שניה שלי.
-מה יכולה להציע בתמורה:
-- פירסינג (איזה שבא לכם)
-- עיצוב גרפי מכל סוג ( מעל 10 שנים בתחום)
-- הנחה לקעקוע בסטודיו 
-ועוד מלא דברים יצרתיים שונות (יוצרת בספוג, תופרת, עובדת בעץ, חיתוך בקריקאט וכיוב')</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>נקבה</t>
-        </is>
-      </c>
+          <t>מה קורה? מתלבט לגבי איזה קורסים לקחת סמסטר הבא, אני סטודנט למתמטיקה ושוקל לקחת פיזיקה למתמטיקאים.
+עכשיו איפה מתחילה הבעיה? אין לי אפילו בגרות בפיזיקה והדבר היחיד שזכור לי זה F=ma ויחידות מידה, כל זה מכיתה ח כזה. זה הסילבוס:
+שבוע 1-3, מכניקה קלאסית: מבוא, אנליזת יחידות. קינמטיקה. חוקי ניוטון. כבידה, נורמל, חיכוך וכוחות בסיסיים אחרים. תנועה הרמונית. תנועה מעגלית, תנע. מרכז מסה. אנרגיה, עבודה, כוחות משמרים ופוטנציאל. תנע זוויתי, מומנטים, גופים קשיחים, מומנט התמד, גלגול עם ובלי החלקה. גרביטציה ופוטנציאל אפקטיבי.
+שבוע 4-6, מכניקה אנליטית: חשבון ואריאציות. קואורדינטות מוכללות. לגרנז'יאן ומשוואות אוילר-לגראנז'. לגרנז'יאן עם אילוצים. המילטוניאן. תנודות קטנות ואופני תנודה עצמיים. כוח מרכזי והבעיה הדו גופית. גוף קשיח וסביבונים. סימטריות וגדלים שמורים (משפט נתר).
+שבוע 7-9, אלקטרומגנטיות: מטענים וחוק קולון. שדה חשמלי, אנרגיה אלקטרוסטטית והפוטנציאל הסקלרי. זרמים ושדה מגנטי. הפוטנציאל הוקטורי. משוואות מקסוול הדינמיות. חופש הכיול ופוטנציאלים מעוכבים. כוח לורנץ. גלים וגלים אלקטרומגנטיים.
+שבוע 10-11, יחסות פרטית: ניסוי מיקלסון מורלי. התארכות הזמן והתכווצות המרחב. האינטרוול. טרנספורמציות לורנץ ומרחב מינקובסקי. קונוס האור, הפרדה מרחבית והפרדה זמנית. פרדוקסים ופתרונם. אפקט דופלר. ארבע וקטורים. תנע-אנרגיה. כוחות ותאוצה.
+שבוע 12-13, תורת שדות קלאסית: טנזורים. הסכם הסכימה של איינשטיין. צפיפות לגרנז'יאן. תורת שדות אלקטרומגנטית. משפט נתר. טנזור התנע אנרגיה. וקטור פוינטינג.
+עכשיו המניע שלי הוא לא שחסרים קורסים של מתמטיקה עיונית לקחת אלא שאני מרגיש שזה חור בהשכלה ששווה לי לסגור(לאו דווקא בלקיחת הקורס) מה גם שבזמני הפנוי קראתי קצת על חשבון וריאציות שמתחבר בעיקר למכניקה לגרנז׳יאנית.
+האם נראה לכם ששווה לקחת את זה בשביל 5 נקז עם ידע של כיתה ח ורקע מתמטי סולידי?
+אגב תוהה לכמה נקודות זכות/קורסין זה מקביל בתואר כמו פיזיקה או אחת ההנדסות.
+תודה מראש על חוות הדעת</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Kira Agur</t>
+          <t xml:space="preserve">Jones Inc </t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">facebook / בארטר מהלב
-</t>
+          <t>fxp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>fxp.co.il</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/265893208051540/user/1250730921/?__cft__[0]=AZXn5lw57wnLRYtqTNUvrEQWpM0mfM4ohfFQQYTnWvgTMh7dj1xcA-3KviAzYAIeQbZY-v49_FPpRjA2R-f1Al746nAwuaJebXo40piGXaJRuFtwYTRtGpxWk0ORVL3NXzLqCj9y-NVddx9DB1n1xes69rCLZ2bfD5IJDeS3mfFxcIwLAILzFtKUVyG4G2kGzGJ7kQMTNeM5U_T42DJQKK8B&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.fxp.co.il/showthread.php?t=21805905</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14459,10 +14479,10 @@
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>277</v>
+        <v>1502</v>
       </c>
       <c r="M190" t="n">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -14475,10 +14495,10 @@
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="n">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="Y190" t="n">
-        <v>277</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="191">
@@ -14487,35 +14507,40 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>היי אשמח לחוות דעת למלונות:
-מילוס ים המלח
-וורט ים המלח</t>
+          <t>היי שלום אני מעוניין ללמוד מדעי המחשב באוקטובר,החשש שלי הוא הקורסים המתמטיים כמובן.
+אני מתקבל לכלל המכללות ואני סבור שאצליח בהם עם השקעה אינטינסיבית בגלל שיש שם מעטפת מתרגלים וכו'
+לעומת זאת אני לא יודע אם אני אצליח באוניברסיטה הפתוחה כי להבנתי החומר שם ברמה יותר גבוהה והמעטפת והעזרה היא פחותה.
+כמו כן ישנו סיכוי שאצליח להתקבל לאחת האוניברסיטאות (בוועדת חריגים)
+רקע קצת עליי עשיתי בגרות 5 יחל מדעי המחשב עם ציון 91,ומתמטיקה 5 יחידות בציון 75 שלא היה קל להשגה.
+129 בכמותי בפסיכו שגם לא היה קל להשגה
+אז השאלה שלי היא כזאת איך לדעת האם אני מסוגל לצלוח את התואר במדעי המחשב באוניברסיטה?מה האינדיקציה הכי טובה?
+האם לוותר מראש וללכת למכללה או לנסות להצליח באוניברסיטה למרות הסיכון שאני אולי אפילו עלול לא להצליח חס וחלילה?</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Shira Tal Hirshenzon</t>
+          <t>moshetefalet</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>facebook / מדברים על בתי מלון בישראל - ללא פילטרים</t>
+          <t>fxp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>fxp.co.il</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/639502990026879/user/1589058756/?__cft__[0]=AZURi3jLOyEU-v8OhaQAUYuUVK_0y4vrnmHDKqOCoq4ycPP8zDgPjftkX5e2bTXBNB35uhX8Y4FvDRTybzPNNS-lz2WcHVGW5SIK8DunY-Z1jrf0RfI_nq7qGn2lfn2IcmC1uM0bW4C1i_HqtueoNr6eae1xUUp2tH6Cz-TiUpt6c4YN7BZ49DSWvmQfVA7NriXSrz43DT-emRGrJUUtXLP1&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.fxp.co.il/showthread.php?t=21807811</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14530,10 +14555,10 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>46</v>
+        <v>599</v>
       </c>
       <c r="M191" t="n">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -14546,10 +14571,10 @@
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="n">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="Y191" t="n">
-        <v>46</v>
+        <v>599</v>
       </c>
     </row>
     <row r="192">
@@ -14558,7 +14583,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>איזה מלונות יש ששומרים כיפור עם ארוחה מפסקת וארוחה בצאת החג?</t>
+          <t>היי, אני חדש כאן באתר
+רציתי לשאול שאלה ואני לא יודע האם זה לחלוטין המקום המתאים כככה שאני מתנצל אם לא ואני מקווה שאני לא עובר על החוקים של האתר
+השאלה שלי היא כזו:
+לאחרונה התחלתי להיכנס לעולם ההשקעות ושוק ההון. נכון לעכשיו אני משקיע דרך הבנק
+הבנתי שעל מנת להשקיע במדד הs&amp;p500 יש צורך בקרן סל או בקרן מחקה
+אחרי בדיקה שעשיתי, מצאתי שבבנק שלי (אולי זה בכל הבנקים ככה, אני לא יודע) יש משהו נקרא "מור סל S&amp;P 500" ודבר נוסף שנקרא "קסם S&amp;P 500 ETF"
+השאלה שלי היא האם אחד מהדברים האלה הוא האופציה להשקיע במדד הs&amp;p500? כלומר, האם האופציה הראשונה, לצורך העניין, היא האופציה "הכי פשוטה" להשקעה במדד הs&amp;p500?
+אני יודע שיש עוד אופציות דומות אבל שני האופציות שציינתי הן האופציות בעלות השער האחרון הכי גבוה (מור סל S&amp;P 500 קרובה ממש לשווי הs&amp;p500) לכן שאלתי לגבי שתי אלה.
+שוב, מתנצל אם השאלה שלי עוברת על חוקי הפורום אבל אשמח אם מישהו יוכל להאיר קצת את פניי
+תודה רבה.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -14569,22 +14603,22 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Yuval Bracha</t>
+          <t>Anonimus1212</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>facebook / מדברים על בתי מלון בישראל - ללא פילטרים</t>
+          <t>fxp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>fxp.co.il</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/639502990026879/user/100000393543125/?__cft__[0]=AZWfUmk--WtnUSvBRNzRSWQccbFE-qdhWkrtMAY5Om5ErRMeZwtQrKzOmbOQpant4K-7O_dA0nMp1wqSRJUC85ULQay9IPHnhvq9wvljTuCcElL373l3DrqOsL5gMKulaSaNoX76oKI7PghJ7K_7BVqrgCr5xNX7eXQJu_wszlmbFoZiDEigOg30p6EMxK15i2FUJfCbsnPVWgKNnvT8yGBn&amp;__tn__=-UC%2CP-R</t>
+          <t>https://www.fxp.co.il/showthread.php?t=21804868</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14599,10 +14633,10 @@
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>50</v>
+        <v>698</v>
       </c>
       <c r="M192" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
@@ -14615,10 +14649,10 @@
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Y192" t="n">
-        <v>50</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193">
@@ -14626,235 +14660,6 @@
         <v>192</v>
       </c>
       <c r="B193" t="inlineStr">
-        <is>
-          <t>מה קורה? מתלבט לגבי איזה קורסים לקחת סמסטר הבא, אני סטודנט למתמטיקה ושוקל לקחת פיזיקה למתמטיקאים.
-עכשיו איפה מתחילה הבעיה? אין לי אפילו בגרות בפיזיקה והדבר היחיד שזכור לי זה F=ma ויחידות מידה, כל זה מכיתה ח כזה. זה הסילבוס:
-שבוע 1-3, מכניקה קלאסית: מבוא, אנליזת יחידות. קינמטיקה. חוקי ניוטון. כבידה, נורמל, חיכוך וכוחות בסיסיים אחרים. תנועה הרמונית. תנועה מעגלית, תנע. מרכז מסה. אנרגיה, עבודה, כוחות משמרים ופוטנציאל. תנע זוויתי, מומנטים, גופים קשיחים, מומנט התמד, גלגול עם ובלי החלקה. גרביטציה ופוטנציאל אפקטיבי.
-שבוע 4-6, מכניקה אנליטית: חשבון ואריאציות. קואורדינטות מוכללות. לגרנז'יאן ומשוואות אוילר-לגראנז'. לגרנז'יאן עם אילוצים. המילטוניאן. תנודות קטנות ואופני תנודה עצמיים. כוח מרכזי והבעיה הדו גופית. גוף קשיח וסביבונים. סימטריות וגדלים שמורים (משפט נתר).
-שבוע 7-9, אלקטרומגנטיות: מטענים וחוק קולון. שדה חשמלי, אנרגיה אלקטרוסטטית והפוטנציאל הסקלרי. זרמים ושדה מגנטי. הפוטנציאל הוקטורי. משוואות מקסוול הדינמיות. חופש הכיול ופוטנציאלים מעוכבים. כוח לורנץ. גלים וגלים אלקטרומגנטיים.
-שבוע 10-11, יחסות פרטית: ניסוי מיקלסון מורלי. התארכות הזמן והתכווצות המרחב. האינטרוול. טרנספורמציות לורנץ ומרחב מינקובסקי. קונוס האור, הפרדה מרחבית והפרדה זמנית. פרדוקסים ופתרונם. אפקט דופלר. ארבע וקטורים. תנע-אנרגיה. כוחות ותאוצה.
-שבוע 12-13, תורת שדות קלאסית: טנזורים. הסכם הסכימה של איינשטיין. צפיפות לגרנז'יאן. תורת שדות אלקטרומגנטית. משפט נתר. טנזור התנע אנרגיה. וקטור פוינטינג.
-עכשיו המניע שלי הוא לא שחסרים קורסים של מתמטיקה עיונית לקחת אלא שאני מרגיש שזה חור בהשכלה ששווה לי לסגור(לאו דווקא בלקיחת הקורס) מה גם שבזמני הפנוי קראתי קצת על חשבון וריאציות שמתחבר בעיקר למכניקה לגרנז׳יאנית.
-האם נראה לכם ששווה לקחת את זה בשביל 5 נקז עם ידע של כיתה ח ורקע מתמטי סולידי?
-אגב תוהה לכמה נקודות זכות/קורסין זה מקביל בתואר כמו פיזיקה או אחת ההנדסות.
-תודה מראש על חוות הדעת</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jones Inc </t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21805905</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1502</v>
-      </c>
-      <c r="M193" t="n">
-        <v>269</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="n">
-        <v>269</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>היי שלום אני מעוניין ללמוד מדעי המחשב באוקטובר,החשש שלי הוא הקורסים המתמטיים כמובן.
-אני מתקבל לכלל המכללות ואני סבור שאצליח בהם עם השקעה אינטינסיבית בגלל שיש שם מעטפת מתרגלים וכו'
-לעומת זאת אני לא יודע אם אני אצליח באוניברסיטה הפתוחה כי להבנתי החומר שם ברמה יותר גבוהה והמעטפת והעזרה היא פחותה.
-כמו כן ישנו סיכוי שאצליח להתקבל לאחת האוניברסיטאות (בוועדת חריגים)
-רקע קצת עליי עשיתי בגרות 5 יחל מדעי המחשב עם ציון 91,ומתמטיקה 5 יחידות בציון 75 שלא היה קל להשגה.
-129 בכמותי בפסיכו שגם לא היה קל להשגה
-אז השאלה שלי היא כזאת איך לדעת האם אני מסוגל לצלוח את התואר במדעי המחשב באוניברסיטה?מה האינדיקציה הכי טובה?
-האם לוותר מראש וללכת למכללה או לנסות להצליח באוניברסיטה למרות הסיכון שאני אולי אפילו עלול לא להצליח חס וחלילה?</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>moshetefalet</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21807811</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>599</v>
-      </c>
-      <c r="M194" t="n">
-        <v>127</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="n">
-        <v>127</v>
-      </c>
-      <c r="Y194" t="n">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>היי, אני חדש כאן באתר
-רציתי לשאול שאלה ואני לא יודע האם זה לחלוטין המקום המתאים כככה שאני מתנצל אם לא ואני מקווה שאני לא עובר על החוקים של האתר
-השאלה שלי היא כזו:
-לאחרונה התחלתי להיכנס לעולם ההשקעות ושוק ההון. נכון לעכשיו אני משקיע דרך הבנק
-הבנתי שעל מנת להשקיע במדד הs&amp;p500 יש צורך בקרן סל או בקרן מחקה
-אחרי בדיקה שעשיתי, מצאתי שבבנק שלי (אולי זה בכל הבנקים ככה, אני לא יודע) יש משהו נקרא "מור סל S&amp;P 500" ודבר נוסף שנקרא "קסם S&amp;P 500 ETF"
-השאלה שלי היא האם אחד מהדברים האלה הוא האופציה להשקיע במדד הs&amp;p500? כלומר, האם האופציה הראשונה, לצורך העניין, היא האופציה "הכי פשוטה" להשקעה במדד הs&amp;p500?
-אני יודע שיש עוד אופציות דומות אבל שני האופציות שציינתי הן האופציות בעלות השער האחרון הכי גבוה (מור סל S&amp;P 500 קרובה ממש לשווי הs&amp;p500) לכן שאלתי לגבי שתי אלה.
-שוב, מתנצל אם השאלה שלי עוברת על חוקי הפורום אבל אשמח אם מישהו יוכל להאיר קצת את פניי
-תודה רבה.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Anonimus1212</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21804868</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>698</v>
-      </c>
-      <c r="M195" t="n">
-        <v>163</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="n">
-        <v>163</v>
-      </c>
-      <c r="Y195" t="n">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
         <is>
           <t>שלום!
 כמובטח, באתי השבוע במטרה להראות לכם סוג נוסף של אקארי – RGB.
@@ -14872,11 +14677,219 @@
 ואני כמובן פה לשאלות.</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>I Love Sleeping</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>fxp</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>fxp.co.il</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://www.fxp.co.il/showthread.php?t=21750455</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>944</v>
+      </c>
+      <c r="M193" t="n">
+        <v>209</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="n">
+        <v>209</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>שלום לכולם.
+פתחתי אשכול בפורום ״לב אל לב״ בנושא אבל אני מעדיף לפתוח אשכול כאן בנושא.
+נכשלתי טסט שלישי היום.
+המורה נהיגה שלי פשוט מורה גרוע שאכפת לו רק מכסף ולא אכפת לו בכלל מהתלמידים שלו ואני אסביר למה.
+אחרי הטסט הראשון, השני והשלישי (היום) הוא לא שאל אותי אחרי איך היה הטסט, אם הוא בולם אותי או נגע לי בהגה הוא לא נראה כאילו הוא מתעניין בי בכלל. בנוסף, רוב התלמידים שלו הם מהעיר שלי עכשיו אחרי הטסטים שלי ביקשתי ממנו שישים אותי בבית הוא אמר שזה ״לא ללוח הזמנים שלו״ כאילו פאקינג שילמתי לו לשיעורים ועל הטסט והוא שם פס.
+היום אחרי הטסט השלישי התלמידה שהיית איתי היא גרה 2 קילומטר ממני והוא כן היה יכול לשים אותי בקרבת מקום או בבית אבל רואים לפי צורת ההתנהגות שלו שאין לו כוח אליי ואני לא מעניין אותו בכלל הוא רק רצה תכסף, נכנס לאוטו וברח משם.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Yarin99996666</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>fxp</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>fxp.co.il</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://www.fxp.co.il/showthread.php?t=21804858</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>600</v>
+      </c>
+      <c r="M194" t="n">
+        <v>147</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="n">
+        <v>147</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>היי,בשנת 2018 הוצאתי רישיון אוטומט.ב2020 החלטתי להשלים לידני  וביצעתי את כל השלבים, עברתי טסט על ידני.המשכתי לנסוע כרגיל (על רכב אוטומט כשיש לי ביד את הכרטיס רישיון שמוגבל לאוטומט) ולא הוצאתי עדיין את הרישיון החדש כי זה היה לשלם כפל רישיון, ואני לא הזדקקתי לרישיון הידני כי נהגתי על אוטומט.אז העדפתי לחכות שייגמר התוקף של מה שיש לי ואחכ לשלם אגרה שיביאו לי רישיון חדש.לפני כמה ימים קיבלתי מכתב הביתה לשלם 568 ש"ח בשביל האגרת רישיון נהיגה (עד גיל 70)ואני רואה שאני מוגבל לאוטומט.התקשרתי למשרד הרישוי, אף אחד לא עזר, אמרו לי ללכת פיזית לשם ושרק שם יכולים לעדכן.הלכתי היום והנציגה אמרה לי שהיא רואה שעברתי ב2018 טסט על אוטומט.אבל לא רואה שעברתי ב2020 טסט על ידני בכלל.יש לי sms מקורי שלהם ששלחו לי שעברתי טסט, יש לי את המורה נהיגה שיכול להעיד ומה שצריך.לא הסכימה לשנות לי את הרישיון לידני ויותר מזה, אמרה לי שגם אם היה רשום שעברתי את הטסט היא לא הייתה יכולה לעזור לי בטענה שעבר יותר מ3 שנים מאז הטסט.נאמר לי "לעשות טסט מחדש"מיותר לציין שאף פעם לא נאמר לי שאני חייב ללכת למשרד הרישוי כדי שישנו לי מאוטומט לידני, אף פעם לא נאמר לי שיש לטסט תוקף..מה ניתן לעשות?</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>ItsForU</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>fxp</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>fxp.co.il</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://www.fxp.co.il/showthread.php?t=21808054</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>860</v>
+      </c>
+      <c r="M195" t="n">
+        <v>195</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="n">
+        <v>195</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">עשיתי 15 שיעורים כפולים עם מורה אחד ועברתי למורה אחרת. עכשיו עשיתי 3.5 שיעורים כפולים עם המורה החדשה ועשיתי טסט פנימי. אני מעוניינת להחליף מורה מפני שביום של הטסט הפנימי הייתי עם מורה אחרת, המנהלת של ביס לנהיגה, והייתי עם רכב אחר ממה שאני בדרכ. היא הורידה לי את הבטחון מאוד, ערערה אותי מה שגרם לי לעשות טעויות בטסט. בדרכ אני מאוד טובה בשיעורים, המורה הנוכחית שלי, לא המנהלת, לא בלמה אותי פעם אחת, אך ביום של הטסט המנהלת הורידה לי את הבטחון מאוד. עברתי טסט פנימי. עכשיו אני מעוניינת להחליף מורה אבל היא לא מוכנה לתת לי אישור שעברתי טסט פנימי. מה לעשות במצב כזה? זה חוקי?כמו כן שילמתי לה על כמה שיעורים מראש ואת כולם ביצעתי, עכשיו היא מבקשת שאשלם 2000 שקלים נוספים על שיעורים נוספים ורק אז היא תשלח לי את ההערות על הטסט. מובן לי שצריך לשלם מראש אך אני לא מעוניינת בככ הרבה שיעורים כי אני כן נוהגת מספיק טוב. אני לא חתמתי על כלום, אבל היא אומרת שזה פרט שהיא אמרה לי לפני הטסט הפנימי שאני חייבת לשלם לה למרות שאני סיימתי את המינימום.כדאי לי להשאר איתה כבר ולעבור טסט חיצוני או שכדאי לעבור? כמעט סיימתי את מס השיעורים המינימלי, כן מוכנה לטסט עם עוד חמישה שיעורים, ולא 13 כמו שהיא מבקשת ממני. מה לעשות במצב כזה? </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>נקבה</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>I Love Sleeping</t>
+          <t>מעומי5555555555</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -14891,7 +14904,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21750455</t>
+          <t>https://www.fxp.co.il/showthread.php?t=21804713</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14906,10 +14919,10 @@
       </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>944</v>
+        <v>893</v>
       </c>
       <c r="M196" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -14922,10 +14935,10 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Y196" t="n">
-        <v>944</v>
+        <v>893</v>
       </c>
     </row>
     <row r="197">
@@ -14933,214 +14946,6 @@
         <v>196</v>
       </c>
       <c r="B197" t="inlineStr">
-        <is>
-          <t>שלום לכולם.
-פתחתי אשכול בפורום ״לב אל לב״ בנושא אבל אני מעדיף לפתוח אשכול כאן בנושא.
-נכשלתי טסט שלישי היום.
-המורה נהיגה שלי פשוט מורה גרוע שאכפת לו רק מכסף ולא אכפת לו בכלל מהתלמידים שלו ואני אסביר למה.
-אחרי הטסט הראשון, השני והשלישי (היום) הוא לא שאל אותי אחרי איך היה הטסט, אם הוא בולם אותי או נגע לי בהגה הוא לא נראה כאילו הוא מתעניין בי בכלל. בנוסף, רוב התלמידים שלו הם מהעיר שלי עכשיו אחרי הטסטים שלי ביקשתי ממנו שישים אותי בבית הוא אמר שזה ״לא ללוח הזמנים שלו״ כאילו פאקינג שילמתי לו לשיעורים ועל הטסט והוא שם פס.
-היום אחרי הטסט השלישי התלמידה שהיית איתי היא גרה 2 קילומטר ממני והוא כן היה יכול לשים אותי בקרבת מקום או בבית אבל רואים לפי צורת ההתנהגות שלו שאין לו כוח אליי ואני לא מעניין אותו בכלל הוא רק רצה תכסף, נכנס לאוטו וברח משם.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Yarin99996666</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21804858</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>600</v>
-      </c>
-      <c r="M197" t="n">
-        <v>147</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr"/>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
-      <c r="X197" t="n">
-        <v>147</v>
-      </c>
-      <c r="Y197" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>היי,בשנת 2018 הוצאתי רישיון אוטומט.ב2020 החלטתי להשלים לידני  וביצעתי את כל השלבים, עברתי טסט על ידני.המשכתי לנסוע כרגיל (על רכב אוטומט כשיש לי ביד את הכרטיס רישיון שמוגבל לאוטומט) ולא הוצאתי עדיין את הרישיון החדש כי זה היה לשלם כפל רישיון, ואני לא הזדקקתי לרישיון הידני כי נהגתי על אוטומט.אז העדפתי לחכות שייגמר התוקף של מה שיש לי ואחכ לשלם אגרה שיביאו לי רישיון חדש.לפני כמה ימים קיבלתי מכתב הביתה לשלם 568 ש"ח בשביל האגרת רישיון נהיגה (עד גיל 70)ואני רואה שאני מוגבל לאוטומט.התקשרתי למשרד הרישוי, אף אחד לא עזר, אמרו לי ללכת פיזית לשם ושרק שם יכולים לעדכן.הלכתי היום והנציגה אמרה לי שהיא רואה שעברתי ב2018 טסט על אוטומט.אבל לא רואה שעברתי ב2020 טסט על ידני בכלל.יש לי sms מקורי שלהם ששלחו לי שעברתי טסט, יש לי את המורה נהיגה שיכול להעיד ומה שצריך.לא הסכימה לשנות לי את הרישיון לידני ויותר מזה, אמרה לי שגם אם היה רשום שעברתי את הטסט היא לא הייתה יכולה לעזור לי בטענה שעבר יותר מ3 שנים מאז הטסט.נאמר לי "לעשות טסט מחדש"מיותר לציין שאף פעם לא נאמר לי שאני חייב ללכת למשרד הרישוי כדי שישנו לי מאוטומט לידני, אף פעם לא נאמר לי שיש לטסט תוקף..מה ניתן לעשות?</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>ItsForU</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21808054</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>860</v>
-      </c>
-      <c r="M198" t="n">
-        <v>195</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
-      <c r="W198" t="inlineStr"/>
-      <c r="X198" t="n">
-        <v>195</v>
-      </c>
-      <c r="Y198" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">עשיתי 15 שיעורים כפולים עם מורה אחד ועברתי למורה אחרת. עכשיו עשיתי 3.5 שיעורים כפולים עם המורה החדשה ועשיתי טסט פנימי. אני מעוניינת להחליף מורה מפני שביום של הטסט הפנימי הייתי עם מורה אחרת, המנהלת של ביס לנהיגה, והייתי עם רכב אחר ממה שאני בדרכ. היא הורידה לי את הבטחון מאוד, ערערה אותי מה שגרם לי לעשות טעויות בטסט. בדרכ אני מאוד טובה בשיעורים, המורה הנוכחית שלי, לא המנהלת, לא בלמה אותי פעם אחת, אך ביום של הטסט המנהלת הורידה לי את הבטחון מאוד. עברתי טסט פנימי. עכשיו אני מעוניינת להחליף מורה אבל היא לא מוכנה לתת לי אישור שעברתי טסט פנימי. מה לעשות במצב כזה? זה חוקי?כמו כן שילמתי לה על כמה שיעורים מראש ואת כולם ביצעתי, עכשיו היא מבקשת שאשלם 2000 שקלים נוספים על שיעורים נוספים ורק אז היא תשלח לי את ההערות על הטסט. מובן לי שצריך לשלם מראש אך אני לא מעוניינת בככ הרבה שיעורים כי אני כן נוהגת מספיק טוב. אני לא חתמתי על כלום, אבל היא אומרת שזה פרט שהיא אמרה לי לפני הטסט הפנימי שאני חייבת לשלם לה למרות שאני סיימתי את המינימום.כדאי לי להשאר איתה כבר ולעבור טסט חיצוני או שכדאי לעבור? כמעט סיימתי את מס השיעורים המינימלי, כן מוכנה לטסט עם עוד חמישה שיעורים, ולא 13 כמו שהיא מבקשת ממני. מה לעשות במצב כזה? </t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>נקבה</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>מעומי5555555555</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>fxp</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>fxp.co.il</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://www.fxp.co.il/showthread.php?t=21804713</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>893</v>
-      </c>
-      <c r="M199" t="n">
-        <v>213</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
-      <c r="X199" t="n">
-        <v>213</v>
-      </c>
-      <c r="Y199" t="n">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
         <is>
           <t>אודות/הצהרת העצמאות של מאמאצחיק:
 ברוכות הבאות לבית של המאמאצחיקיות - קבוצת הנשים הסגורה הגדולה ביותר בישראל.
@@ -15168,71 +14973,71 @@
 שאו ברכה נתראה בקבוצה</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>נקבה</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
         <is>
           <t>מאמאצחיק</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/Mamatzhik/permalink/2895023590898585/?mibextid=oFDknk&amp;rdid=RBIQsGNNd5uoLlKD&amp;share_url=https%3A%2F%2Fwww.facebook.com%2Fshare%2Fp%2Fy1oxqgFmRi5FE6KU%2F%3Fmibextid%3DoFDknk</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
         <v>1140</v>
       </c>
-      <c r="M200" t="n">
+      <c r="M197" t="n">
         <v>190</v>
       </c>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
-      <c r="T200" t="inlineStr"/>
-      <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
-      <c r="X200" t="n">
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="n">
         <v>190</v>
       </c>
-      <c r="Y200" t="n">
+      <c r="Y197" t="n">
         <v>1140</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
         <is>
           <t>מבקש לא לשפוט, אני בן 24 בזוגיות עם בחורה כבר קרוב לשנתיים.
 יש לי חבר מהשירות שאנחנו נפגשים מדי פעם ויוצאים לברים ביחד, או סתם הולכים למשחקי כדורגל ביחד.
@@ -15240,63 +15045,63 @@
 חבר שלי עכשיו רוצה לקדם את הקשר איתה וחושב להציע לה להתחתן, וכל הסיפור הזה יושב עליי ואני שוקל לספר לו על מה שקרה ביני לבינה לפני שהוא יתחתן איתה, לא כדי לעשות תיקון עם עצמי, אלא כי אני חושש שהיא תעשה לו את זה בעתיד כשהוא יהיה נשוי עם ילדים ממנה ותשבור לו את הלב ואולי כדאי להקדים תרופה למכה, יש הרבה הבדל בין להציל את החיים שלו עכשיו ולגלות לו את זה ומי הבת זוג שלו באמת, לבין זה שהוא יגלה את זה בגיל 40 יום אחד כשהוא כבר עם ילדים ואין נקודת יציאה בלי מזונות.</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=904743955005597&amp;id=100064100016764&amp;mibextid=oFDknk&amp;rdid=7WdGi6v5IHaasXRn</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
         <v>937</v>
       </c>
-      <c r="M201" t="n">
+      <c r="M198" t="n">
         <v>237</v>
       </c>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
-      <c r="X201" t="n">
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="n">
         <v>237</v>
       </c>
-      <c r="Y201" t="n">
+      <c r="Y198" t="n">
         <v>937</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>201</v>
-      </c>
-      <c r="B202" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
         <is>
           <t>בקרוב מאוד אפרד מהאופנוע שחצה איתי את כנען יותר פעמים משאוכל לזכור. מגבול סוריה לסיני, מתל-אביב לחברון, מעוטף עזה, למדבר יהודה וכמעט עד פסגת החרמון. 
 זו כמעט קלישאה גברית להתאהב באופנוע, אבל המוטוגוצי הזה באמת היה עבורי בית נטול קירות, אהבה שאינה תלויה באספלט, סמל החופש האולטימטיבי - ואפילו מיטה, בטיול או שניים שהשתבשו.
@@ -15308,71 +15113,71 @@
 אני יודע שבמשך ארבע שנים - האופנוע הזה הקפיד להחזיר לי אהבה.</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>https://www.facebook.com/share/p/9v24FetTAwHMka4R/?mibextid=oFDknk</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
         <v>682</v>
       </c>
-      <c r="M202" t="n">
+      <c r="M199" t="n">
         <v>146</v>
       </c>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr"/>
-      <c r="W202" t="inlineStr"/>
-      <c r="X202" t="n">
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="n">
         <v>146</v>
       </c>
-      <c r="Y202" t="n">
+      <c r="Y199" t="n">
         <v>682</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>202</v>
-      </c>
-      <c r="B203" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>מקור - כתבתי את הטקסט הזה על השואה והנאצים הארורים. דמיינתי את מחנות הריכוז, את קברי האחים, את הר הנעליים והעשן שעלה מהמשרפות.
 אבל השנה, כמו רבים אחרים, עולים מולי מראות אחרים. 
@@ -15390,71 +15195,71 @@
 מלבד את עצמם.</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=862142335722946&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=qUJkynw3I8aCKnd2</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
         <v>624</v>
       </c>
-      <c r="M203" t="n">
+      <c r="M200" t="n">
         <v>134</v>
       </c>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
-      <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr"/>
-      <c r="W203" t="inlineStr"/>
-      <c r="X203" t="n">
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="n">
         <v>134</v>
       </c>
-      <c r="Y203" t="n">
+      <c r="Y200" t="n">
         <v>624</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
         <is>
           <t>“רוב הרגעים בחיי נדמים כחסרי משמעות לחלוטין, אבל לא ריקים מהגשמה, אלא מלאים בחוסר הגשמה. כי החוסר תופס המון מקום, יותר מידי. כל הבעיות שלי עומדות עם מגאפונים וצורחות את עצמן. 
 אני לא יודע מה יש לי עם אינטימיות, ולמה המיניות מעסיקה אותי כל כך. כמות הנשים שמסתובבות לי בראש לא יביישו הרצאת ענק של הרבנית ימימה. 
@@ -15474,71 +15279,71 @@
 נע בין תחושה שאני יותר טוב מכל אדם שאפגוש – לבין התחושה שאני הגרוע שבבני האדם. אני יודע ששניהם שגויים, שהאמת לא נמצאת באמצע, כי אין אמצע, זה לא באמת מדיד”.</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=857379046199275&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=SZGM9Nn4iz1nZ1Rp</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
         <v>1725</v>
       </c>
-      <c r="M204" t="n">
+      <c r="M201" t="n">
         <v>400</v>
       </c>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
-      <c r="W204" t="inlineStr"/>
-      <c r="X204" t="n">
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="n">
         <v>400</v>
       </c>
-      <c r="Y204" t="n">
+      <c r="Y201" t="n">
         <v>1725</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
         <is>
           <t>בתמונה הראשונה - אני כשנשאלתי אם אירוע כזה יצליח, 
 באחרונה - אני כשקיבלנו תשובה, 
@@ -15550,71 +15355,71 @@
 אבל הנה, טעיתי.</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
         <is>
           <t>‎אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=832463622024151&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=2xRS8mQYo5XpekKM</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
         <v>697</v>
       </c>
-      <c r="M205" t="n">
+      <c r="M202" t="n">
         <v>148</v>
       </c>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr"/>
-      <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr"/>
-      <c r="W205" t="inlineStr"/>
-      <c r="X205" t="n">
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="n">
         <v>148</v>
       </c>
-      <c r="Y205" t="n">
+      <c r="Y202" t="n">
         <v>697</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
         <is>
           <t>מעל שנה עברה מאז שהספר הרביעי יצא לאור.
 מאז התמונה ההיא נוספו לי קצת קמטים, ואפילו שיערות לבנות. והעיניים כבר מזמן לא לגמרי נוצצות. מספר לספר אני מזהה עייפות שהולכת ומתיישבת על העפעפיים. מכבידה על העיניים, מטשטשת את המבט הבוהק ההוא. ואני אוהב אותה, את העייפות הזו. אמנם מעולם לא חלמתי להיות מבוגר, אבל זה מסוג הרגעים שהופכים למוצלחים דווקא כי לא תכננת. כשאתה זוכה להגשים מבלי שבכלל חלמת.
@@ -15630,71 +15435,71 @@
 מרשה לעצמי להוציא לכם לשון.</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=843273300943183&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=gxUnlaGZbgxvMNMA</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
         <v>737</v>
       </c>
-      <c r="M206" t="n">
+      <c r="M203" t="n">
         <v>162</v>
       </c>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
-      <c r="W206" t="inlineStr"/>
-      <c r="X206" t="n">
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="n">
         <v>162</v>
       </c>
-      <c r="Y206" t="n">
+      <c r="Y203" t="n">
         <v>737</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
         <is>
           <t xml:space="preserve">״איזון״, מלמלה בלעג:
 ״כל הקטע עם איזון קצת יצא מאיזון. איזון, כרעיון, זה אחלה. אבל איזון הוא לא מטרת העל של החיים, הוא כלי, משאב זמין שאמור לשרת אותנו כשאנחנו מאבדים לרגע דרך. איזון כאסטרטגיית חיים זו מתכונת נפלאה לחיים ממוצעים. חיים ממושמעים יותר, אולי שלווים יותר, אל יודע. אבל בנינו, גם שלווה מוערכת יתר על המידה. 
@@ -15707,71 +15512,71 @@
 אפוריה מתפלספת על הבר, מתוך הספר החמישי </t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=824902702780243&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=HlH1nznJcAY1udaY</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
         <v>1232</v>
       </c>
-      <c r="M207" t="n">
+      <c r="M204" t="n">
         <v>278</v>
       </c>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr"/>
-      <c r="W207" t="inlineStr"/>
-      <c r="X207" t="n">
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="n">
         <v>278</v>
       </c>
-      <c r="Y207" t="n">
+      <c r="Y204" t="n">
         <v>1232</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>ביקור בוולנסיה חלק 2: 
 רצינו מלון על הים התיכון (בפורטוגל הים קפוא)... ראיתי מלון מתאים שלא הראה אפשרות בבוקינג לשלושה אנשים בחדר אז הרמתי אליהם טלפון... וקיבלתי. אז קחו כטיפ מעניין: תמיד כדאי לבדוק בטלפון!
@@ -15780,71 +15585,71 @@
 הם סופר נחמדים ועזרו לנו עם חגיגות היומולדת לירדן... שחגג 16.. מתוכם שלוש וחצי שנים בטיולים בעולם... טפו טפו.. שבוע טוב.</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>נקבה</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
         <is>
           <t>השמיים פתוחים - רילוקיישן ומסעות ארוכים בעולם</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=522957746738902&amp;id=100070740445541&amp;mibextid=oFDknk&amp;rdid=RUSgms74nON5Y4s0</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
         <v>654</v>
       </c>
-      <c r="M208" t="n">
+      <c r="M205" t="n">
         <v>141</v>
       </c>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="n">
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="n">
         <v>141</v>
       </c>
-      <c r="Y208" t="n">
+      <c r="Y205" t="n">
         <v>654</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t xml:space="preserve">חלמתם פעם על מסע ארוך בעולם או רילוקיישן עצמאי? 🌏
 האם דמיינתם איפה זה הולך לקרות? באי טרופי קסום, עיר אירופאית מרהיבה, חווה פסטורלית בפורטוגל או במקדש בודהיסטי שקט ביפן? איך נראה החלום שלכם? האם אתם הולכים לגור ליד קהילה ישראלית תומכת? איזה סוג ויזה אתם צריכים? רוצים לשכור בית  או לטייל בקרוואן מפנק?
@@ -15861,71 +15666,71 @@
 כי המסע שלכם מתחיל כאן. </t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>נקבה</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
         <is>
           <t>השמיים פתוחים - רילוקיישן ומסעות ארוכים בעולם</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=518278943873449&amp;id=100070740445541&amp;mibextid=oFDknk&amp;rdid=8BZKoHlcm8vvBfTZ</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
         <v>878</v>
       </c>
-      <c r="M209" t="n">
+      <c r="M206" t="n">
         <v>184</v>
       </c>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
-      <c r="W209" t="inlineStr"/>
-      <c r="X209" t="n">
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="n">
         <v>184</v>
       </c>
-      <c r="Y209" t="n">
+      <c r="Y206" t="n">
         <v>878</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>הקיטוב בארץ נדמה לנו כאירוע מקומי, קיצוני וייחודי לישראל. אבל ברחבי העולם, לאן שלא נביט, מתהווה אירוע חסר תקדים של קיטוב סביב נושאים שונים. 
 כי על אף שמושא הקיטוב נדמה לכל מדינה כבעל חשיבות של חיים ומוות - זו למעשה הדרך שבה אנחנו עוסקים בו, שהופכת אותו לכזה שקורע תרבויות שלמות.
@@ -15938,71 +15743,71 @@
 עד כדי כך היה כיף 🙂</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>https://www.facebook.com/story.php?story_fbid=820024536601393&amp;id=100057815629192&amp;mibextid=oFDknk&amp;rdid=rTdiXhZFzVM2QBIp</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
         <v>572</v>
       </c>
-      <c r="M210" t="n">
+      <c r="M207" t="n">
         <v>123</v>
       </c>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr"/>
-      <c r="W210" t="inlineStr"/>
-      <c r="X210" t="n">
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="n">
         <v>123</v>
       </c>
-      <c r="Y210" t="n">
+      <c r="Y207" t="n">
         <v>572</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
         <is>
           <t>אתה לא גנרי
 אין לך את הטמפלייט הקבוע. 
@@ -16020,71 +15825,71 @@
 ייחשב לגנרי.</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
         <is>
           <t>אסיף אלקיים</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>https://www.facebook.com/asifelka/posts/pfbid02ybPbXa9K1VoPEmsbWgDusKRLQ945vXh1j4anbD7tao8HBJVU3bwqLdrfrXXRctHHl</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
         <v>658</v>
       </c>
-      <c r="M211" t="n">
+      <c r="M208" t="n">
         <v>149</v>
       </c>
-      <c r="N211" t="inlineStr"/>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr"/>
-      <c r="U211" t="inlineStr"/>
-      <c r="V211" t="inlineStr"/>
-      <c r="W211" t="inlineStr"/>
-      <c r="X211" t="n">
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="n">
         <v>149</v>
       </c>
-      <c r="Y211" t="n">
+      <c r="Y208" t="n">
         <v>658</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
         <is>
           <t>פעם הייתי ברמן, מזגתי בירה ברחובות עיר הקודש.
 מאחורי דלפק עץ חשוך הקשבתי לסיפורים של נשמות שברחו לטיפה המרה - או המתוקה, תלוי מה הזמינו. 
@@ -16124,6 +15929,224 @@
 2016 // פואטיקת הששבש.</t>
         </is>
       </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>אסיף אלקיים</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/asifelka/posts/pfbid02QS6DX9sFenJ7eGvR4G927yvtzPi1N24Jy5H7gCS8YD4dCWGqVUuzLdVi9C81BaZ8l</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1068</v>
+      </c>
+      <c r="M209" t="n">
+        <v>231</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="n">
+        <v>231</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>שלום, פסלו אותי היום על תשובה לשאלת שכר ורציתי חוות דעת ממכם על פי מה אתם נותנים את התשובה שלכם לשאלת מהי ציפיית השכר? ואם זה סיכוי גבוה להיפסל שאני מבקש מהמגייס להגיד לי מה השכר המקובל אצלכם למשרה הזאתי זה מה שאמרתי למגייס, כי כל מועמד יסכים שזה לא הוגן אם לחברה יש תקציב לתת לו סכום מסוים והוא יגיד פחות והם יסגרו איתו ובדיעבד יצא שהוא הפסיד כסף, וגם אם המועמד אמר סכום גבוה מכמה שהם מוכנים לשלם למה לא להגיד לו חרגת מהסכום הזה אנחנו יכולים בסכום הזה, לרוב אנשים פשוט נפסלים, אף אחד לא קורא מחשבות, למה אין מוסכמה פשוט להגיד מה המינימום שהמעסיק מוכן לשלם עבור התפקיד שלא יפסיד כסף לעסק כמובן והמקסימום בשביל המועמד בשביל שיהיה שווה לו להגיע לראיון עבודה ולמנוע את כל התסביכים האלה.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Alon Dadia</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7882425688545339/</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>552</v>
+      </c>
+      <c r="M210" t="n">
+        <v>132</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="n">
+        <v>132</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>היי, 
+מעדיפה כרגע באנונימי כי עומדת מול דילמה לגבי המשך העסקה. בגיל 30 פלוס, חוזרת לארץ מארה״ב, אחרי מעל 10 שנים, עקב סיבות משפחתיות. סיימתי תואר ראשון בדאטה סיינס ביוני, והאמת שמאוד נהנתי מהלימודים (עשיתי פרויקטים בפייתון כולל דאשבורדס ובניתי דאטה בייס בSQL server) ולפתור שאלות במתמטיקה. בפועל באינטרנשיפס לא יישמתי את הכלים שקיבלתי בתכנות מעבר לSQL ואקסל וtableau. יש תחושה גדולה בהבדל בין מה שיודעת למה שיכולה לכתוב בחופשיות בפייתון או ג׳אבה. יודעת את הבסיס. 
+קצת עלי, אני בן אדם של אנשים. שיחות עם אנשים, זה נותן לי אנרגיה ותכלית. לראות אנשים מתקדמים, מצליחים, זה עושה לי את היום. ובפרויקטים, רואה את הדרך של בנייה עם המשאבים להשקעה מהתחלה עד הסוף. ובאופי באופן כללי, בן אדם של עשייה וקידום. עשיתי כמה עבודות ניהול בעבר, והיו מרוצים ממני. חשוב לי הצלחה ואני מקדמת אליה בכל המשאבים שלי. 
+שוקלת את ההמשך כרגע. האם להמשיך כמה חודשים לבנות תיק פורטפוליו עם פרויקטים בפייתון, SQL ואקסל ודאשבורדים. ולהגיש מועמדות לעבודות בדאטה אנליסט, או אולי יש תפקידים שאני לא יודעת עליהם שתהיה בהם עבודה יומיומית שתשתמש ביותר חוזקות שלי בעבודה מול אנשים, פרויקטים.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>נקבה</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Anonymous participant</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7887324248055483/</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>872</v>
+      </c>
+      <c r="M211" t="n">
+        <v>179</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="n">
+        <v>179</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>מיואש כבר… 
+אני בוגר מכללה נחשבת עם ממוצע 92. סיימתי לפני שנה ועד עכשיו לא מצאתי עבודה. 
+הייתי ב10-15 ראיונות עד עכשיו ומתוכם 3 היו בשלב אחרון ואז בחרו לקחת מישהו עם ״יותר״ ניסיון. הכל היה למשרות פיתוח.
+אני עובר את רוב המטלות בית, שאלות אלגוריתמים (תרגלתי כבר ככ הרבה שאלות בleetcode שאני פשוט זוכר את הפתרונות בכל פה של 90% מהשאלות שם).
+ישלי פרויקטים, אני יודע להביא פתרונות וללמוד כל מה שמפילים עליי. 
+כרגע אני בשלב שכבר לא כלכך יודע מה לעשות. חושב אולי על לשנות כיוון, אבל מה כבר ישלי. אני רוצה משהו טכני, כמו הנדסת חשמל, מכניקה אבל מניח שגם שם אותו סיפור.
+חשבתי על לקחת עכשיו קורס QA מאיזו מכללה רק כדי להיכנס לפחות למשרת QA. אני רואה הרבה משרות QA שדורשים *****בוגרי קורסים*****
+ללכת על זה?
+בבקשה חברה שהיו באותו מצב והצליחו לצאת מזה, בבקשה תעזרו ותגיבו</t>
+        </is>
+      </c>
       <c r="C212" t="inlineStr">
         <is>
           <t>זכר</t>
@@ -16132,7 +16155,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>אסיף אלקיים</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -16147,7 +16170,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/asifelka/posts/pfbid02QS6DX9sFenJ7eGvR4G927yvtzPi1N24Jy5H7gCS8YD4dCWGqVUuzLdVi9C81BaZ8l</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7847572098697365/</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -16162,10 +16185,10 @@
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>1068</v>
+        <v>622</v>
       </c>
       <c r="M212" t="n">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -16178,10 +16201,10 @@
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
       <c r="X212" t="n">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="Y212" t="n">
-        <v>1068</v>
+        <v>622</v>
       </c>
     </row>
     <row r="213">
@@ -16190,7 +16213,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>שלום, פסלו אותי היום על תשובה לשאלת שכר ורציתי חוות דעת ממכם על פי מה אתם נותנים את התשובה שלכם לשאלת מהי ציפיית השכר? ואם זה סיכוי גבוה להיפסל שאני מבקש מהמגייס להגיד לי מה השכר המקובל אצלכם למשרה הזאתי זה מה שאמרתי למגייס, כי כל מועמד יסכים שזה לא הוגן אם לחברה יש תקציב לתת לו סכום מסוים והוא יגיד פחות והם יסגרו איתו ובדיעבד יצא שהוא הפסיד כסף, וגם אם המועמד אמר סכום גבוה מכמה שהם מוכנים לשלם למה לא להגיד לו חרגת מהסכום הזה אנחנו יכולים בסכום הזה, לרוב אנשים פשוט נפסלים, אף אחד לא קורא מחשבות, למה אין מוסכמה פשוט להגיד מה המינימום שהמעסיק מוכן לשלם עבור התפקיד שלא יפסיד כסף לעסק כמובן והמקסימום בשביל המועמד בשביל שיהיה שווה לו להגיע לראיון עבודה ולמנוע את כל התסביכים האלה.</t>
+          <t>אני מסיים לימודי הנדסת תוכנה במכללה, ועובד בתור מיישם אבטחת מידע כבר שנתיים בערך.
+אני רוצה להסב את עצמי לכיוון הdevops, מרגיש לי יותר מעניין, מתגמל ובכללי קשור לתואר שעשיתי.
+בעבודה שלי עכשיו אני מתעסק בהגדרות FW, EDR, AD, וגם עבודות maintenance בסיסיות של התקנות כלי אבטחה, משתמשים וכו
+אני גם בונה אוטומציות שונות עם פייתון וAPI של הכלים שלנו כדי לייעל עבודה.
+בנוסף עשיתי קורס devops דרך יודמי, ורכשתי את הידע הבסיסי שהוא נותן אם זה לעבוד עם JENKINS, docker, AWS, ANSIBLE וכו
+1. אני מגיש קוח לחברות על משרות ג'וניור של דבאופס, ולא חוזרים אליי, או שרושמים לא רלוונטי..האם בכלל יש לי סיכוי להגיע למשרה כזאת?
+2. האם לרשום שעשיתי קורס יודמי בקוח? זה לא נחשב "מגוחך" קצת?
+3. כדאי לעשות קורס דבאופס של מוסד אקדמי כלשהו? זה יתרום לי יותר?</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -16201,7 +16231,7 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Alon Dadia</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -16216,7 +16246,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7882425688545339/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7875213445933230/</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -16231,10 +16261,10 @@
       </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="M213" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -16247,10 +16277,10 @@
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y213" t="n">
-        <v>552</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214">
@@ -16259,15 +16289,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>היי, 
-מעדיפה כרגע באנונימי כי עומדת מול דילמה לגבי המשך העסקה. בגיל 30 פלוס, חוזרת לארץ מארה״ב, אחרי מעל 10 שנים, עקב סיבות משפחתיות. סיימתי תואר ראשון בדאטה סיינס ביוני, והאמת שמאוד נהנתי מהלימודים (עשיתי פרויקטים בפייתון כולל דאשבורדס ובניתי דאטה בייס בSQL server) ולפתור שאלות במתמטיקה. בפועל באינטרנשיפס לא יישמתי את הכלים שקיבלתי בתכנות מעבר לSQL ואקסל וtableau. יש תחושה גדולה בהבדל בין מה שיודעת למה שיכולה לכתוב בחופשיות בפייתון או ג׳אבה. יודעת את הבסיס. 
-קצת עלי, אני בן אדם של אנשים. שיחות עם אנשים, זה נותן לי אנרגיה ותכלית. לראות אנשים מתקדמים, מצליחים, זה עושה לי את היום. ובפרויקטים, רואה את הדרך של בנייה עם המשאבים להשקעה מהתחלה עד הסוף. ובאופי באופן כללי, בן אדם של עשייה וקידום. עשיתי כמה עבודות ניהול בעבר, והיו מרוצים ממני. חשוב לי הצלחה ואני מקדמת אליה בכל המשאבים שלי. 
-שוקלת את ההמשך כרגע. האם להמשיך כמה חודשים לבנות תיק פורטפוליו עם פרויקטים בפייתון, SQL ואקסל ודאשבורדים. ולהגיש מועמדות לעבודות בדאטה אנליסט, או אולי יש תפקידים שאני לא יודעת עליהם שתהיה בהם עבודה יומיומית שתשתמש ביותר חוזקות שלי בעבודה מול אנשים, פרויקטים.</t>
+          <t>היי! רציתי להתייעץ כאן בנוגע לבחירת ה"טייטל" שיגדיר את התפקיד שלי בצורה הכי נכונה בקורות החיים שלי ע"פ החברה האחרונה בה עבדתי.
+עבדתי בה כ-3 שנים, במהלכן פיתחתי פרונט + בק של אפליקציות ווב למיניהן, מה שהיום מוגדר בעצם כFull Stack Developer.
+עם זאת, במהלך השנים ביצעתי לא רק משימות קוד נטו שצריך לממש אלא התעסקתי ממש בבניית Designים, החל מפיצ'רים קטנים ועד למערכות שלמות, גם בHigh-Level (כמו קומפוננטות Cloud) וגם ברמת הקוד (הגדרת Interfaceים, אבסטרקציות וכדומה).
+בנוסף התעסקתי לא מעט עם Cloud ויש לי שם לא מעט ניסיון. באופן כללי הנטייה שלי היא יותר לצד שרת ושם גם רוב הניסיון שלי.
+מישהו המליץ לי להגדיר את עצמי כSoftware Engineer יותר מאשר פול סטאק, בעיקר בגלל הניסיון שלי בבניית דייזינים ולא רק בכתיבת קוד.
+אציין שאין לי אף תואר.
+לכן אשמח להתייעץ איתכם, על איזה טייטל אתם הייתם הולכים עם הניסיון הזה?
+ברמה האישית אני מרגיש קצת מעבר לפול סטאק, אבל מצד שני אני מרגיש קצת לא בנוח לקרוא לעצמי מהנדס כשאין לי תואר?
+אודה לדעתכם הכנה.
+תודה רבה!</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -16288,7 +16324,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7887324248055483/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7869625639825344/</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -16303,10 +16339,10 @@
       </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="M214" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -16319,10 +16355,10 @@
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="inlineStr"/>
       <c r="X214" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Y214" t="n">
-        <v>872</v>
+        <v>778</v>
       </c>
     </row>
     <row r="215">
@@ -16330,237 +16366,6 @@
         <v>214</v>
       </c>
       <c r="B215" t="inlineStr">
-        <is>
-          <t>מיואש כבר… 
-אני בוגר מכללה נחשבת עם ממוצע 92. סיימתי לפני שנה ועד עכשיו לא מצאתי עבודה. 
-הייתי ב10-15 ראיונות עד עכשיו ומתוכם 3 היו בשלב אחרון ואז בחרו לקחת מישהו עם ״יותר״ ניסיון. הכל היה למשרות פיתוח.
-אני עובר את רוב המטלות בית, שאלות אלגוריתמים (תרגלתי כבר ככ הרבה שאלות בleetcode שאני פשוט זוכר את הפתרונות בכל פה של 90% מהשאלות שם).
-ישלי פרויקטים, אני יודע להביא פתרונות וללמוד כל מה שמפילים עליי. 
-כרגע אני בשלב שכבר לא כלכך יודע מה לעשות. חושב אולי על לשנות כיוון, אבל מה כבר ישלי. אני רוצה משהו טכני, כמו הנדסת חשמל, מכניקה אבל מניח שגם שם אותו סיפור.
-חשבתי על לקחת עכשיו קורס QA מאיזו מכללה רק כדי להיכנס לפחות למשרת QA. אני רואה הרבה משרות QA שדורשים *****בוגרי קורסים*****
-ללכת על זה?
-בבקשה חברה שהיו באותו מצב והצליחו לצאת מזה, בבקשה תעזרו ותגיבו</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Anonymous participant</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7847572098697365/</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>622</v>
-      </c>
-      <c r="M215" t="n">
-        <v>142</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="n">
-        <v>142</v>
-      </c>
-      <c r="Y215" t="n">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>215</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>אני מסיים לימודי הנדסת תוכנה במכללה, ועובד בתור מיישם אבטחת מידע כבר שנתיים בערך.
-אני רוצה להסב את עצמי לכיוון הdevops, מרגיש לי יותר מעניין, מתגמל ובכללי קשור לתואר שעשיתי.
-בעבודה שלי עכשיו אני מתעסק בהגדרות FW, EDR, AD, וגם עבודות maintenance בסיסיות של התקנות כלי אבטחה, משתמשים וכו
-אני גם בונה אוטומציות שונות עם פייתון וAPI של הכלים שלנו כדי לייעל עבודה.
-בנוסף עשיתי קורס devops דרך יודמי, ורכשתי את הידע הבסיסי שהוא נותן אם זה לעבוד עם JENKINS, docker, AWS, ANSIBLE וכו
-1. אני מגיש קוח לחברות על משרות ג'וניור של דבאופס, ולא חוזרים אליי, או שרושמים לא רלוונטי..האם בכלל יש לי סיכוי להגיע למשרה כזאת?
-2. האם לרשום שעשיתי קורס יודמי בקוח? זה לא נחשב "מגוחך" קצת?
-3. כדאי לעשות קורס דבאופס של מוסד אקדמי כלשהו? זה יתרום לי יותר?</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Anonymous participant</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7875213445933230/</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>606</v>
-      </c>
-      <c r="M216" t="n">
-        <v>133</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="inlineStr"/>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr"/>
-      <c r="X216" t="n">
-        <v>133</v>
-      </c>
-      <c r="Y216" t="n">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>216</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>היי! רציתי להתייעץ כאן בנוגע לבחירת ה"טייטל" שיגדיר את התפקיד שלי בצורה הכי נכונה בקורות החיים שלי ע"פ החברה האחרונה בה עבדתי.
-עבדתי בה כ-3 שנים, במהלכן פיתחתי פרונט + בק של אפליקציות ווב למיניהן, מה שהיום מוגדר בעצם כFull Stack Developer.
-עם זאת, במהלך השנים ביצעתי לא רק משימות קוד נטו שצריך לממש אלא התעסקתי ממש בבניית Designים, החל מפיצ'רים קטנים ועד למערכות שלמות, גם בHigh-Level (כמו קומפוננטות Cloud) וגם ברמת הקוד (הגדרת Interfaceים, אבסטרקציות וכדומה).
-בנוסף התעסקתי לא מעט עם Cloud ויש לי שם לא מעט ניסיון. באופן כללי הנטייה שלי היא יותר לצד שרת ושם גם רוב הניסיון שלי.
-מישהו המליץ לי להגדיר את עצמי כSoftware Engineer יותר מאשר פול סטאק, בעיקר בגלל הניסיון שלי בבניית דייזינים ולא רק בכתיבת קוד.
-אציין שאין לי אף תואר.
-לכן אשמח להתייעץ איתכם, על איזה טייטל אתם הייתם הולכים עם הניסיון הזה?
-ברמה האישית אני מרגיש קצת מעבר לפול סטאק, אבל מצד שני אני מרגיש קצת לא בנוח לקרוא לעצמי מהנדס כשאין לי תואר?
-אודה לדעתכם הכנה.
-תודה רבה!</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Anonymous participant</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7869625639825344/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>778</v>
-      </c>
-      <c r="M217" t="n">
-        <v>169</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr"/>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="n">
-        <v>169</v>
-      </c>
-      <c r="Y217" t="n">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>217</v>
-      </c>
-      <c r="B218" t="inlineStr">
         <is>
           <t>אמלק: איך עושים את קפיצת המדרגה מג׳וניור לסיניור? 
 בהרחבה: סיימתי תואר, במקביל עבדתי במשרת סטודנט שם נחשפתי טיפה לתכנות. אחרי התואר התקבלתי למשרת ג׳וניור, למדתי ה-מ-ו-ן פרקטיקה בשנתיים! 
@@ -16576,71 +16381,71 @@
 תודה מראש לעוזרים!</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>נקבה</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
         <is>
           <t>Anonymous participant</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7846140198840555/</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
         <v>714</v>
       </c>
-      <c r="M218" t="n">
+      <c r="M215" t="n">
         <v>155</v>
       </c>
-      <c r="N218" t="inlineStr"/>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="inlineStr"/>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="n">
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="n">
         <v>155</v>
       </c>
-      <c r="Y218" t="n">
+      <c r="Y215" t="n">
         <v>714</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>218</v>
-      </c>
-      <c r="B219" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
         <is>
           <t>היי חברים יקרים
 אני שורד נובה, עבדתי במקצועות ה IT בחמש השנים האחרונות ,ניסיתי להמשיך קדימה ולהתרכז בעבודה אך לא הצלחתי להמשיך לנהל צוות כשאני קורס מבפנים.
@@ -16656,6 +16461,227 @@
 תודה מראש למי שקרא עד לכאן, אשמח לתשובות 🙂</t>
         </is>
       </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Adir Bitton</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7864039057050669/</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>730</v>
+      </c>
+      <c r="M216" t="n">
+        <v>167</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>שלום לכולם, שמי תמיר ואני סטודנט שנה שנייה למערכות מידע במכללת עמק יזרעאל. אני פונה אליכם כי אני מתמודד עם אתגר במציאת עבודה בתחום, ואני מאוד אשמח לקבל הכוונה ועזרה.
+כרגע, ממוצע הציונים שלי עומד על 80, ואני מבין שזה לא הגבוה ביותר, במיוחד כשאני לומד במכללה ולא באוניברסיטה. אני מאוד נחוש להצליח ולהגיע למטרות שהצבתי לעצמי, אבל אני מרגיש מעט אבוד בכל הנוגע לשלב הבא שלי.
+אני שוקל להרחיב ולהעמיק את הידע שלי בנושאים שלמדתי במסגרת התואר, וללמוד נושאים חדשים דרך קורסים מקוונים כמו אלה שמציעים בפלטפורמות כמו Udemy. בנוסף, חשבתי להתחיל ליצור פרויקטים עצמאיים, אך אני לא בטוח איך לגשת לכך ואיך להשתמש בכלים כמו GitHub. אני גם תוהה עד כמה פרויקטים אישיים יכולים באמת לשפר את הסיכוי שלי להתקבל לעבודה בתחום.
+אני לומד רק יום וחצי בשבוע, ויש לי לא מעט זמן פנוי ללמידה עצמאית, כולל במהלך המילואים. לכן, אני מאוד אשמח לשמוע המלצות ועצות פרקטיות איך להתקדם מכאן ואילך כדי לשפר את הסיכויים שלי להשתלב בשוק העבודה כבר במהלך הלימודים.
+תודה מראש על כל עזרה והכוונה!</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Tamir Levi</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7865494650238443/</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>784</v>
+      </c>
+      <c r="M217" t="n">
+        <v>170</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="n">
+        <v>170</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>אני ממש מתוסכל לא יודע מה לעשות, למדתי קורס full stack במכללה שלא אגיד את שמה, הקורס היה אינטנסיבי עם הכשרה מעשית מקצועית, ברובו היה הכשרה על ה front end אבל גם נתנו חלק ל backend, העניין הוא שבגלל שזה היה הפעם הראשונה שעברתי הכשרה ב full stack או בכלל בתכנות היה לי ממש קשה ביצרת הפרויקטים מרוב האינטנסיביות של הקורס.
+הניסיון היותר חזק שלי זה ברובו ב front end כמו html css react ניסיון רב ב javascript מתקדם וגם עם עבודה מול restful api.
+הצד היותר חלש שלי זה ה backend, שכרגע לפחות אני מרגיש ששם אני חלש לדוגמה בנושאים של nodejs express js  sql mongodb וכו.
+אני מאד רוצה להיכנס לתחום אבל מרגיש שאין לי מה להציג, יש לי פרויקט אחד ב front end עם restful api אבל לדעתי זה בסיסי ביותר, אני כרגע בצומת ולא יודע מה לעשות אם ללכת שוב להתמחות אם זה ב udemy או באיזה bootcamp רציני, או שלוותר ולחפש תחום אחר שאני יוכל להצליח בו?
+אולי לנסות איזה קורס QA? מה לדעתכם עדיף לי לעשות תודה רבה לכולם</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Anonymous participant</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7859127897541785/</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>714</v>
+      </c>
+      <c r="M218" t="n">
+        <v>175</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>שלום, אשמח לייעוץ.
+בקיצור - האם כדאי לבוגר הנדסת תוכנה להכנס למשרת COBOL למשך שנתיים?
+בהרחבה - אני בוגר הנדסת תוכנה טרי (סיימתי לפני כחצי שנה) - וכבר מעל חצי שנה שאני מחפש משרה ראשונה ללא הצלחה, סך הכל עד היום חזרו אליי בדיוק פעמיים ולמרות שאני חושב שהלך לי טוב בראיון - לא המשיכו איתי.
+בנוגע לציפיות שכר בחודש האחרון כבר רשמתי 9000 העיקר שיחזרו אליי, ועדיין לא חוזרים.
+אני כבר נואש וחייב להתחיל לעבוד ולכן יש לי את האפשרות לעשות הכשרה ללא עלות במשך חודשיים בשפת COBOL ואז לעבוד דרכם למשך שנתיים בשכר של 11000שח, השאלה שלי היא האם כדאי לי ללכת לתחום הזה COBOL? האם אחריי שנתיים אוכל להתקדם עם הידע בשפה הזאת?
+או שזה רק יעשה לי רע להמשך כשהשוק יתאושש ואנסה להתקבל למשרות פיתוח בשפות יותר טובות ( JS, PYTHON, FULL STACK וכו')
+תודה לעוזרים</t>
+        </is>
+      </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>זכר</t>
@@ -16664,7 +16690,7 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Adir Bitton</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -16679,7 +16705,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7864039057050669/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/6968452639942653/</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16694,10 +16720,10 @@
       </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>730</v>
+        <v>603</v>
       </c>
       <c r="M219" t="n">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
@@ -16710,10 +16736,10 @@
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
       <c r="X219" t="n">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="Y219" t="n">
-        <v>730</v>
+        <v>603</v>
       </c>
     </row>
     <row r="220">
@@ -16722,11 +16748,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>שלום לכולם, שמי תמיר ואני סטודנט שנה שנייה למערכות מידע במכללת עמק יזרעאל. אני פונה אליכם כי אני מתמודד עם אתגר במציאת עבודה בתחום, ואני מאוד אשמח לקבל הכוונה ועזרה.
-כרגע, ממוצע הציונים שלי עומד על 80, ואני מבין שזה לא הגבוה ביותר, במיוחד כשאני לומד במכללה ולא באוניברסיטה. אני מאוד נחוש להצליח ולהגיע למטרות שהצבתי לעצמי, אבל אני מרגיש מעט אבוד בכל הנוגע לשלב הבא שלי.
-אני שוקל להרחיב ולהעמיק את הידע שלי בנושאים שלמדתי במסגרת התואר, וללמוד נושאים חדשים דרך קורסים מקוונים כמו אלה שמציעים בפלטפורמות כמו Udemy. בנוסף, חשבתי להתחיל ליצור פרויקטים עצמאיים, אך אני לא בטוח איך לגשת לכך ואיך להשתמש בכלים כמו GitHub. אני גם תוהה עד כמה פרויקטים אישיים יכולים באמת לשפר את הסיכוי שלי להתקבל לעבודה בתחום.
-אני לומד רק יום וחצי בשבוע, ויש לי לא מעט זמן פנוי ללמידה עצמאית, כולל במהלך המילואים. לכן, אני מאוד אשמח לשמוע המלצות ועצות פרקטיות איך להתקדם מכאן ואילך כדי לשפר את הסיכויים שלי להשתלב בשוק העבודה כבר במהלך הלימודים.
-תודה מראש על כל עזרה והכוונה!</t>
+          <t>פוסט פריקה קטן בלי פואנטה מיוחדת אבל חייב להגיד את זה,
+אני סטודנט שנה אחרונה לתואר באוניברסיטה הפתוחה ממוצע 85 (מסיים ב-25א'), בשנה האחרונה השקעתי גם בתיק עבודות עם פרויקט או שניים מהלימודים בג'אווה וסי אבל למדתי עצמאית את כל עולם הווב ויש לי כמה פרויקטים די מושקעים בטייפקסריפט שכוללים עבודה עם react next Node.js mongo (חלקם בצוות עם אנשים עם ניסיון של שנים בתעשייה) ואני גם שואף להשתפשף בפיתוח בקאנד עם פייתון. בזמנים טובים יותר אני חושב שזה היה מספיק למצוא משרה מכובדת אבל אני יוצא עכשיו לשוק העבודה בחיפוש אחרי משרה אחרי תואר מאוד אינטנסיבי והביטחון שלי פשוט ברצפה. אני פשוט מפחד להתמיין למשרות. אני רואה סביבי סיפורים כל כך קשים על תחרות ברמת הקניבליזם בשביל פירורים של משרה, אנשים עם ניסיון ממשי בתעשייה רודפים אחרי משרה חודשים ואפילו יותר משנה ואני לא יכול שלא לשאול את עצמי איזה סיכוי יש לי למרות שהנתונים שלי על פניו לא רעים בכלל (ואני אפילו ארשה לעצמי לחטוא ולומר די טובים בשביל אדם במצבי בלי ניסיון ממשי).
+איך מתמודדים עם זה? התואר שחק אותי מנטלית ולמען האמת גם הלחץ לצאת לשוק העבודה אחרי שלוש שנים מחיים על חסכונות של לפני התואר, אני מרגיש שאני לא מספיק חזק מנטלית להתמודד עם כל הדחיות שבודאות יגיעו ולראות אנשים עם רזומה טוב יותר משלי לא מוצאים עבודה כבר חודשים ממש לא מוסיף לביטחון וגורם לתהות מה הטעם לנסות בכלל.
+איך מתמודדים עם זה חוץ מהקלישאות של "להמשיך להגיש משרות לחפש קשרים ויהיה בסדר"? איך אפשר לשפר את הסיכויים? התחושה הזאת שאתה עושה כל מה שצריך ואפשר לעשות וזה עדיין לא קרוב ללהיות מספיק היא פשוט נוראה. אני מבין שזה המצב ולא מתקרבן ולא מחפש רחמים כי יש מאות אם לא אלפים במצבי אבל איך אפשר לשנות את המצב לפחות ברמה המנטלית אם לא ברמה הפרקטית?
+תודה על ההקשבה ונקווה לימים שפויים יותר.</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -16737,7 +16763,7 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Tamir Levi</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -16752,7 +16778,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7865494650238443/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7767154346739141/</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16767,10 +16793,10 @@
       </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>784</v>
+        <v>1315</v>
       </c>
       <c r="M220" t="n">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -16783,10 +16809,10 @@
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
       <c r="X220" t="n">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="Y220" t="n">
-        <v>784</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="221">
@@ -16795,11 +16821,10 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>אני ממש מתוסכל לא יודע מה לעשות, למדתי קורס full stack במכללה שלא אגיד את שמה, הקורס היה אינטנסיבי עם הכשרה מעשית מקצועית, ברובו היה הכשרה על ה front end אבל גם נתנו חלק ל backend, העניין הוא שבגלל שזה היה הפעם הראשונה שעברתי הכשרה ב full stack או בכלל בתכנות היה לי ממש קשה ביצרת הפרויקטים מרוב האינטנסיביות של הקורס.
-הניסיון היותר חזק שלי זה ברובו ב front end כמו html css react ניסיון רב ב javascript מתקדם וגם עם עבודה מול restful api.
-הצד היותר חלש שלי זה ה backend, שכרגע לפחות אני מרגיש ששם אני חלש לדוגמה בנושאים של nodejs express js  sql mongodb וכו.
-אני מאד רוצה להיכנס לתחום אבל מרגיש שאין לי מה להציג, יש לי פרויקט אחד ב front end עם restful api אבל לדעתי זה בסיסי ביותר, אני כרגע בצומת ולא יודע מה לעשות אם ללכת שוב להתמחות אם זה ב udemy או באיזה bootcamp רציני, או שלוותר ולחפש תחום אחר שאני יוכל להצליח בו?
-אולי לנסות איזה קורס QA? מה לדעתכם עדיף לי לעשות תודה רבה לכולם</t>
+          <t>לפני שבועיים חברת סטארטאפ בתל אביב פרסמה משרת בק לגוניור. אחרי שקיבלתי את המטלה במייל מהמנכל(למרות שיש מגייסים בחברה). הגשתי לו במייל עם קישור לגיטהב(יומיים אחרי שקיבלתי את המטלה). שלחתי הודעה למגייסת לוודא שהמייל הגיע, היא אמרה שכן ויקח טיפה זמן לבדוק את המטלה כי הגיע עוד כמה מטלות(אבל נראלי בתור מועמד שלושה שבועות לתשובה על מטלה יחסית בינונית הגיוני כבר לקבל תשובה)
+מפה לשם עברו שבועיים וחצי... לאחר מייל לבדוק מה קורה לא קיבלתי תשובה .
+אני לא מצליח להבין את הרמת זלזול במועמד שמקדיש יומיים שלמים(מהבוקר עד השעות הקטנות של הלילה), מבחינתי שיהיה לא אבל לפחות מייל..משהו...
+רק רציתי להגיד למי שמגייס שייתחס באנושיות לכל מועמד, גם אם יש הרבה מועמדים,אפילו מייל גנרי,העיקר לא להשאיר את המועמד באוויר</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -16825,7 +16850,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7859127897541785/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7765559280231981/</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16840,10 +16865,10 @@
       </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="M221" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
@@ -16856,10 +16881,10 @@
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
       <c r="X221" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="Y221" t="n">
-        <v>714</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222">
@@ -16868,13 +16893,10 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>שלום, אשמח לייעוץ.
-בקיצור - האם כדאי לבוגר הנדסת תוכנה להכנס למשרת COBOL למשך שנתיים?
-בהרחבה - אני בוגר הנדסת תוכנה טרי (סיימתי לפני כחצי שנה) - וכבר מעל חצי שנה שאני מחפש משרה ראשונה ללא הצלחה, סך הכל עד היום חזרו אליי בדיוק פעמיים ולמרות שאני חושב שהלך לי טוב בראיון - לא המשיכו איתי.
-בנוגע לציפיות שכר בחודש האחרון כבר רשמתי 9000 העיקר שיחזרו אליי, ועדיין לא חוזרים.
-אני כבר נואש וחייב להתחיל לעבוד ולכן יש לי את האפשרות לעשות הכשרה ללא עלות במשך חודשיים בשפת COBOL ואז לעבוד דרכם למשך שנתיים בשכר של 11000שח, השאלה שלי היא האם כדאי לי ללכת לתחום הזה COBOL? האם אחריי שנתיים אוכל להתקדם עם הידע בשפה הזאת?
-או שזה רק יעשה לי רע להמשך כשהשוק יתאושש ואנסה להתקבל למשרות פיתוח בשפות יותר טובות ( JS, PYTHON, FULL STACK וכו')
-תודה לעוזרים</t>
+          <t>היי חברים,
+רציתי לשתף אתכם במשהו שמעסיק אותי בימים האחרונים. אני נקרא לשירות מילואים בפעם הרביעית, אחרי שכבר עשיתי 130 ימים של שירות בעבר. אני עובד כמפתח אוטומציה בחברה במשך שנה וחצי.
+מה שכואב  לי זה שאף אחד מהצוות או החברה, כולל המנהל, לא אמר לי "תשמור על עצמך" או איחל לי בהצלחה. כל מה ששמעתי היו תלונות על כך שהעבודה תתעכב ושהולכים לעבוד יותר קשה. אין לי בעיה עם התלונות, זה מובן, אבל באיזשהו מקום זה פוגע שאין שום תמיכה אישית או עידוד.
+אני לא מחפש תשומת לב או מחמאות, פשוט רציתי לשתף את התחושות שלי. אנחנו כולנו אנשים, וכשאנחנו הולכים לשירות, אנחנו משאירים מאחור עבודה, משפחה וחברים.</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -16900,7 +16922,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/6968452639942653/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7766014620186447/</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16915,10 +16937,10 @@
       </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>603</v>
+        <v>481</v>
       </c>
       <c r="M222" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
@@ -16931,10 +16953,10 @@
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
       <c r="X222" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="Y222" t="n">
-        <v>603</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223">
@@ -16943,11 +16965,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>פוסט פריקה קטן בלי פואנטה מיוחדת אבל חייב להגיד את זה,
-אני סטודנט שנה אחרונה לתואר באוניברסיטה הפתוחה ממוצע 85 (מסיים ב-25א'), בשנה האחרונה השקעתי גם בתיק עבודות עם פרויקט או שניים מהלימודים בג'אווה וסי אבל למדתי עצמאית את כל עולם הווב ויש לי כמה פרויקטים די מושקעים בטייפקסריפט שכוללים עבודה עם react next Node.js mongo (חלקם בצוות עם אנשים עם ניסיון של שנים בתעשייה) ואני גם שואף להשתפשף בפיתוח בקאנד עם פייתון. בזמנים טובים יותר אני חושב שזה היה מספיק למצוא משרה מכובדת אבל אני יוצא עכשיו לשוק העבודה בחיפוש אחרי משרה אחרי תואר מאוד אינטנסיבי והביטחון שלי פשוט ברצפה. אני פשוט מפחד להתמיין למשרות. אני רואה סביבי סיפורים כל כך קשים על תחרות ברמת הקניבליזם בשביל פירורים של משרה, אנשים עם ניסיון ממשי בתעשייה רודפים אחרי משרה חודשים ואפילו יותר משנה ואני לא יכול שלא לשאול את עצמי איזה סיכוי יש לי למרות שהנתונים שלי על פניו לא רעים בכלל (ואני אפילו ארשה לעצמי לחטוא ולומר די טובים בשביל אדם במצבי בלי ניסיון ממשי).
-איך מתמודדים עם זה? התואר שחק אותי מנטלית ולמען האמת גם הלחץ לצאת לשוק העבודה אחרי שלוש שנים מחיים על חסכונות של לפני התואר, אני מרגיש שאני לא מספיק חזק מנטלית להתמודד עם כל הדחיות שבודאות יגיעו ולראות אנשים עם רזומה טוב יותר משלי לא מוצאים עבודה כבר חודשים ממש לא מוסיף לביטחון וגורם לתהות מה הטעם לנסות בכלל.
-איך מתמודדים עם זה חוץ מהקלישאות של "להמשיך להגיש משרות לחפש קשרים ויהיה בסדר"? איך אפשר לשפר את הסיכויים? התחושה הזאת שאתה עושה כל מה שצריך ואפשר לעשות וזה עדיין לא קרוב ללהיות מספיק היא פשוט נוראה. אני מבין שזה המצב ולא מתקרבן ולא מחפש רחמים כי יש מאות אם לא אלפים במצבי אבל איך אפשר לשנות את המצב לפחות ברמה המנטלית אם לא ברמה הפרקטית?
-תודה על ההקשבה ונקווה לימים שפויים יותר.</t>
+          <t>בהצלחה לכל אלה שעברו את הקודליטי של מיקרוסופט!!
+חלק מכם מבולבל ותוהה לגבי המסר  שייצרו
+אתכם קשר כשתהיה משרה מתאימה
+א. הקבוצות השונות כנראה בשלבים אחרונים של בדיקת כמות תקנים
+ב. יש פה ושם שוני בתהליכי הראיונות בין הקבוצות
+ג. גם אם התקבלתם במקום אחר - זיכרו, לא נעים מת מזמן. אתם דואגים לקריירה שלכם, ואם לא מדובר בחברה שהיא מהשכבה של גאמפא או ממש ליד (אמריקאיות אחרות) הם יאלצו לסלוח לכם כשתלכו למיקרוסופט .
+תמשיכו ללטקד! תמשיכו להתכונן ולהמשיך להתראיין עד שהדיו לא התייבשה על החוזה.
+מקווה שיום יבוא וגם אתם תבקרו ב"מיקרוסופט פלאזה", רדמונד, וושינגטון סטייט,  אבל כעובדי חברה! לא כמוני - שהלכתי רק להצטלם שם 🙂</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -16958,7 +16983,7 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Anonymous participant</t>
+          <t>Yair Zaslavsky</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -16973,7 +16998,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7767154346739141/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7806353379485904/</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16988,10 +17013,10 @@
       </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>1315</v>
+        <v>505</v>
       </c>
       <c r="M223" t="n">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -17004,10 +17029,10 @@
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
       <c r="X223" t="n">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="Y223" t="n">
-        <v>1315</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224">
@@ -17016,10 +17041,14 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>לפני שבועיים חברת סטארטאפ בתל אביב פרסמה משרת בק לגוניור. אחרי שקיבלתי את המטלה במייל מהמנכל(למרות שיש מגייסים בחברה). הגשתי לו במייל עם קישור לגיטהב(יומיים אחרי שקיבלתי את המטלה). שלחתי הודעה למגייסת לוודא שהמייל הגיע, היא אמרה שכן ויקח טיפה זמן לבדוק את המטלה כי הגיע עוד כמה מטלות(אבל נראלי בתור מועמד שלושה שבועות לתשובה על מטלה יחסית בינונית הגיוני כבר לקבל תשובה)
-מפה לשם עברו שבועיים וחצי... לאחר מייל לבדוק מה קורה לא קיבלתי תשובה .
-אני לא מצליח להבין את הרמת זלזול במועמד שמקדיש יומיים שלמים(מהבוקר עד השעות הקטנות של הלילה), מבחינתי שיהיה לא אבל לפחות מייל..משהו...
-רק רציתי להגיד למי שמגייס שייתחס באנושיות לכל מועמד, גם אם יש הרבה מועמדים,אפילו מייל גנרי,העיקר לא להשאיר את המועמד באוויר</t>
+          <t>שלום חברים.
+אני בוגר תואר ראשון במדעי המחשב ומחפש עבודה, אבל עדיין לא יצא לי להתראיין למשרה כלשהי בתחום.
+רציתי לשאול, מי שכבר יצא לו להתראיין, האם תמיד יש ראיון באנגלית? אני שואל בגלל שאני מאוד חושש מהחלק הזה. אני יודע אנגלית מצוין, אבל בעיקר בשמיעה, כלומר אני יכול לראות סדרות/סרטים/סרטונים ביוטיוב באנגלית בלי בעיה ולהבין הכל, אבל כשזה נוגע לדיבור באנגלית אני לא כל כך טוב. בכתיבה וקריאה אני בסדר גמור, לא מצוין.
+אז בגדול רציתי לשאול שתי שאלות:
+האם בכל פעם שיצא לכם להתראיין למשרה, היה ראיון באנגלית?
+במידה והראיון באנגלית לא הלך טוב, האם פוסלים על זה?
+אני ממש אשמח לתשובות, הקטע הזה ממש מלחיץ אותי.
+תודה רבה לעונים! 🙏🙏</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -17030,7 +17059,7 @@
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Anonymous participant</t>
+          <t>Daniel Cohen</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -17045,7 +17074,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7765559280231981/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7833992260055349/</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -17060,10 +17089,10 @@
       </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="M224" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
@@ -17076,10 +17105,10 @@
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
       <c r="X224" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Y224" t="n">
-        <v>583</v>
+        <v>516</v>
       </c>
     </row>
     <row r="225">
@@ -17088,10 +17117,8 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>היי חברים,
-רציתי לשתף אתכם במשהו שמעסיק אותי בימים האחרונים. אני נקרא לשירות מילואים בפעם הרביעית, אחרי שכבר עשיתי 130 ימים של שירות בעבר. אני עובד כמפתח אוטומציה בחברה במשך שנה וחצי.
-מה שכואב  לי זה שאף אחד מהצוות או החברה, כולל המנהל, לא אמר לי "תשמור על עצמך" או איחל לי בהצלחה. כל מה ששמעתי היו תלונות על כך שהעבודה תתעכב ושהולכים לעבוד יותר קשה. אין לי בעיה עם התלונות, זה מובן, אבל באיזשהו מקום זה פוגע שאין שום תמיכה אישית או עידוד.
-אני לא מחפש תשומת לב או מחמאות, פשוט רציתי לשתף את התחושות שלי. אנחנו כולנו אנשים, וכשאנחנו הולכים לשירות, אנחנו משאירים מאחור עבודה, משפחה וחברים.</t>
+          <t>התלבטות לגבי קורות חיים - בעבודה הקודמת שלי התמקצעתי בעיקר בVue.js, אמנם נגעתי קצת קצת בריאקט (כמו גם פיצ'רים כמו StoryBook) אבל לא ברמה שאני מרגיש עם זה בנוח מידי; כלומר אם יתנו לי לעשות עבודת בית בריאקט, אני בסופו של דבר אצליח, אבל זה לא יהיה קל מידי וכנראה לא ברמת קוד הכי גבוהה. בכל אופן, אני מתלבט אם לציין בקורות חיים בחלק של הSkills שאני יודע ריאקט, או לא. אם ישאלו אותי שאלות טכניות על ריאקט בראיון, יהיה לי מאוד מאוד קשה לענות. מצד שני, אני כן ידוע את הקונספט, יודע לרשום קוד כזה או אחר בריאקט, אבל פשוט לא שוחה בזה.
+מה דעתכם?</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -17117,7 +17144,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7766014620186447/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7830521337069108/</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -17132,10 +17159,10 @@
       </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="M225" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -17148,10 +17175,10 @@
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
       <c r="X225" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y225" t="n">
-        <v>481</v>
+        <v>431</v>
       </c>
     </row>
     <row r="226">
@@ -17160,14 +17187,14 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>בהצלחה לכל אלה שעברו את הקודליטי של מיקרוסופט!!
-חלק מכם מבולבל ותוהה לגבי המסר  שייצרו
-אתכם קשר כשתהיה משרה מתאימה
-א. הקבוצות השונות כנראה בשלבים אחרונים של בדיקת כמות תקנים
-ב. יש פה ושם שוני בתהליכי הראיונות בין הקבוצות
-ג. גם אם התקבלתם במקום אחר - זיכרו, לא נעים מת מזמן. אתם דואגים לקריירה שלכם, ואם לא מדובר בחברה שהיא מהשכבה של גאמפא או ממש ליד (אמריקאיות אחרות) הם יאלצו לסלוח לכם כשתלכו למיקרוסופט .
-תמשיכו ללטקד! תמשיכו להתכונן ולהמשיך להתראיין עד שהדיו לא התייבשה על החוזה.
-מקווה שיום יבוא וגם אתם תבקרו ב"מיקרוסופט פלאזה", רדמונד, וושינגטון סטייט,  אבל כעובדי חברה! לא כמוני - שהלכתי רק להצטלם שם 🙂</t>
+          <t>היי חברים,
+אשמח לעזרה בפרוייקט אישי בתחום הפולסטאק.
+יש לי פרוייקט ב react + nodejs, שעובד והכל, אבל אשמח לכמה הבהרות:
+העלתי את הפרונט והבק בנפרד, כך שהשרת אחראי אך ורק לבקשות, והוא לא מחזיר קבצים לקליינט, וצריך להריץ גם את הפרונט וגם את הבק בנפרד.
+חבר אמר לי שלא כך עושים, אמר שצריך לעשות BUILD לפרונט, להעתיק את כל הקבצים שנוצרו כתוצאה מהבילד לתקייה בשם PUBLIC בשרת, ושהשרת צריך להגיש קבצים סטטים מתוך התקייה, ובכך בעצם רק השרת צריך לרוץ.
+אני קצת מבולבל מכל הסיפור ואשמח להסבר קצת יותר מעמיק בנושא.
+כל הסרטונים שמצאתי בעניין הם בעיקר מראים איך להגיש קובץ HTML סטטי עם בקשת GET, וזה לא המצב אצלי.
+תודה מראש!</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -17178,7 +17205,7 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Yair Zaslavsky</t>
+          <t>Anonymous participant</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -17193,7 +17220,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7806353379485904/</t>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7858227757631799/</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -17208,10 +17235,10 @@
       </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M226" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -17224,10 +17251,10 @@
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
       <c r="X226" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Y226" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227">
@@ -17235,228 +17262,6 @@
         <v>226</v>
       </c>
       <c r="B227" t="inlineStr">
-        <is>
-          <t>שלום חברים.
-אני בוגר תואר ראשון במדעי המחשב ומחפש עבודה, אבל עדיין לא יצא לי להתראיין למשרה כלשהי בתחום.
-רציתי לשאול, מי שכבר יצא לו להתראיין, האם תמיד יש ראיון באנגלית? אני שואל בגלל שאני מאוד חושש מהחלק הזה. אני יודע אנגלית מצוין, אבל בעיקר בשמיעה, כלומר אני יכול לראות סדרות/סרטים/סרטונים ביוטיוב באנגלית בלי בעיה ולהבין הכל, אבל כשזה נוגע לדיבור באנגלית אני לא כל כך טוב. בכתיבה וקריאה אני בסדר גמור, לא מצוין.
-אז בגדול רציתי לשאול שתי שאלות:
-האם בכל פעם שיצא לכם להתראיין למשרה, היה ראיון באנגלית?
-במידה והראיון באנגלית לא הלך טוב, האם פוסלים על זה?
-אני ממש אשמח לתשובות, הקטע הזה ממש מלחיץ אותי.
-תודה רבה לעונים! 🙏🙏</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Daniel Cohen</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7833992260055349/</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>516</v>
-      </c>
-      <c r="M227" t="n">
-        <v>113</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr"/>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
-      <c r="W227" t="inlineStr"/>
-      <c r="X227" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y227" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>227</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>התלבטות לגבי קורות חיים - בעבודה הקודמת שלי התמקצעתי בעיקר בVue.js, אמנם נגעתי קצת קצת בריאקט (כמו גם פיצ'רים כמו StoryBook) אבל לא ברמה שאני מרגיש עם זה בנוח מידי; כלומר אם יתנו לי לעשות עבודת בית בריאקט, אני בסופו של דבר אצליח, אבל זה לא יהיה קל מידי וכנראה לא ברמת קוד הכי גבוהה. בכל אופן, אני מתלבט אם לציין בקורות חיים בחלק של הSkills שאני יודע ריאקט, או לא. אם ישאלו אותי שאלות טכניות על ריאקט בראיון, יהיה לי מאוד מאוד קשה לענות. מצד שני, אני כן ידוע את הקונספט, יודע לרשום קוד כזה או אחר בריאקט, אבל פשוט לא שוחה בזה.
-מה דעתכם?</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Anonymous participant</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7830521337069108/</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>431</v>
-      </c>
-      <c r="M228" t="n">
-        <v>106</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
-      <c r="W228" t="inlineStr"/>
-      <c r="X228" t="n">
-        <v>106</v>
-      </c>
-      <c r="Y228" t="n">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>228</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>היי חברים,
-אשמח לעזרה בפרוייקט אישי בתחום הפולסטאק.
-יש לי פרוייקט ב react + nodejs, שעובד והכל, אבל אשמח לכמה הבהרות:
-העלתי את הפרונט והבק בנפרד, כך שהשרת אחראי אך ורק לבקשות, והוא לא מחזיר קבצים לקליינט, וצריך להריץ גם את הפרונט וגם את הבק בנפרד.
-חבר אמר לי שלא כך עושים, אמר שצריך לעשות BUILD לפרונט, להעתיק את כל הקבצים שנוצרו כתוצאה מהבילד לתקייה בשם PUBLIC בשרת, ושהשרת צריך להגיש קבצים סטטים מתוך התקייה, ובכך בעצם רק השרת צריך לרוץ.
-אני קצת מבולבל מכל הסיפור ואשמח להסבר קצת יותר מעמיק בנושא.
-כל הסרטונים שמצאתי בעניין הם בעיקר מראים איך להגיש קובץ HTML סטטי עם בקשת GET, וזה לא המצב אצלי.
-תודה מראש!</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Anonymous participant</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>facebook.com</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7858227757631799/</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>502</v>
-      </c>
-      <c r="M229" t="n">
-        <v>113</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y229" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>229</v>
-      </c>
-      <c r="B230" t="inlineStr">
         <is>
           <t>ראשית, מודה למי שיקדיש 2 דק מזמנו ויעזור לי ולאחרים שילמדו מהתשובות 🙂
 אז בהמשך למצב ה"מדהים" בשוק, ממשיך להתמקד בפרטים הקטנים כדי לבלוט (והמון סליחה למתחריי, אוהב אתכם).
@@ -17476,71 +17281,71 @@
 תודה רבה ואיזה כיף שיש את הקבוצה הזאת!</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr">
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
         <is>
           <t>Anonymous participant</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7793727937415115/</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
         <v>1067</v>
       </c>
-      <c r="M230" t="n">
+      <c r="M227" t="n">
         <v>228</v>
       </c>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="n">
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="n">
         <v>228</v>
       </c>
-      <c r="Y230" t="n">
+      <c r="Y227" t="n">
         <v>1067</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>230</v>
-      </c>
-      <c r="B231" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
         <is>
           <t>בקבוצה שלנו יש לא רק מתכנתות ומתכנתים חסרי נסיון, אלא גם כאלה שיש להם נסיון מועט.
 למעשה אנחנו רואים שבלא מעט משרות היום, רוצים שלוש שנות נסיון ומעלה.
@@ -17558,71 +17363,71 @@
 אני מאחל לכל אחת ואחד מכם להגיע לחברה שיש בה מסלול קידום לא רק למנהלים אלא רק גם למפתחים., בנוסף כמובן לזה שהחברה תשלם היטב, וגם תעבדו על דברים מעניינים.</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr">
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
         <is>
           <t>Yair Zaslavsky</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7796332227154686/</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
         <v>1278</v>
       </c>
-      <c r="M231" t="n">
+      <c r="M228" t="n">
         <v>292</v>
       </c>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="n">
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="n">
         <v>292</v>
       </c>
-      <c r="Y231" t="n">
+      <c r="Y228" t="n">
         <v>1278</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>231</v>
-      </c>
-      <c r="B232" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
         <is>
           <t>היי לכולם, לא יודע איך לנסח את זה...
 סיימתי תואר בהצטיינות לפני כמה שנים. שחקתי שיניים בקורסים ה״קשים״ וגירדתי בחלקם את העובר ובכל זאת סיימתי.
@@ -17632,71 +17437,71 @@
 תודה רבה לכולם ❤</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr">
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
         <is>
           <t>Anonymous participant</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7784012881719954/</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
         <v>761</v>
       </c>
-      <c r="M232" t="n">
+      <c r="M229" t="n">
         <v>173</v>
       </c>
-      <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="inlineStr"/>
-      <c r="T232" t="inlineStr"/>
-      <c r="U232" t="inlineStr"/>
-      <c r="V232" t="inlineStr"/>
-      <c r="W232" t="inlineStr"/>
-      <c r="X232" t="n">
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="n">
         <v>173</v>
       </c>
-      <c r="Y232" t="n">
+      <c r="Y229" t="n">
         <v>761</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>232</v>
-      </c>
-      <c r="B233" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
         <is>
           <t>שלום, אני חייב לשתף תהליך גיוס שעברתי בחברה מאוד גדולה.
 אני מפתח ג׳וניור ללא ניסיון (יש כמה פרויקטים פולסטאק)
@@ -17714,71 +17519,71 @@
 מקבל פלאפון ממהר לענות, היי עברת את כל המבחנים בהצלחה אבל ה HR החליט להמשיך עם מועמדים אחרים KABOOOM יום טוב!</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
         <is>
           <t>Anonymous participant</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7765148276939748/</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
         <v>763</v>
       </c>
-      <c r="M233" t="n">
+      <c r="M230" t="n">
         <v>169</v>
       </c>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="n">
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="n">
         <v>169</v>
       </c>
-      <c r="Y233" t="n">
+      <c r="Y230" t="n">
         <v>763</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>233</v>
-      </c>
-      <c r="B234" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
         <is>
           <t>מחפש עבודה יותר משנה וחצי, רק דחיות ודחיות בלתי פוסקות
 סיימתי את התואר במכללה מוכרת בממוצע 84.
@@ -17793,71 +17598,71 @@
 אין לי באמת בעיות כל שהן לעבוד בתפקידים שציינתי</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr">
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
         <is>
           <t>Anonymous participant</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>facebook</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>facebook.com</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>https://www.facebook.com/groups/645409222247058/posts/7760600344061208/</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
         <v>593</v>
       </c>
-      <c r="M234" t="n">
+      <c r="M231" t="n">
         <v>142</v>
       </c>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="n">
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="n">
         <v>142</v>
       </c>
-      <c r="Y234" t="n">
+      <c r="Y231" t="n">
         <v>593</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
         <is>
           <t>"יאיר, פתרתי את כל השאלות במבחן אונליין של אמאזון בצורה מוצלחת, ועדיין לא הזמינו אותי לראיון. למה?"
 "יאיר, התראיינתי בחברה אמריקאית גדולה, ועניתי על כל השאלות נכון, מצאתי אותן בליטקוד, ולא המשיכו אותי. למה?"
@@ -17874,30 +17679,250 @@
 מצ"ב תמונה מאיזור הראיונות בסידני בה יאיר מחייך כי אין לו מושג מה מחכה לו ביום הראיונות למחרת 🙂</t>
         </is>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>נקבה</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Michal Barkan Gur</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/645409222247058/posts/7743769182410991/</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M232" t="n">
+        <v>202</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="n">
+        <v>202</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>שלום לכולם
+לפני השאלה אציין שדיברתי עם יועצים ובכל זאת אשמח לשמוע דעתכם
+יש ברשותי דירה ללא משכנתא שנקנתה עבורי ועכשיו אני גר בה
+ששוויה 1.7
+ירשתי חצי דירה ששוויה 3 מיליון,כלומר 1.5 החלק שלי
+ועוד 250 אלף שח במזומן מקופות השקעה שהייתי המוטב
+איך הכי נכון לדעתכם לנהל או להשקיע את ההון</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>39</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">יוגב </t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>AskPeople</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>www.askp.co.il</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>https://www.askp.co.il/question/385127</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>237</v>
+      </c>
+      <c r="M233" t="n">
+        <v>53</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>היי, אחד החברים של אבא שלי אמר לי שאין טעם שיהיה שם כסף, זה היה ממזמן אז אני לא זוכרת מה הסיבה שהוא אמר את זה.. זה נשמע לי קצת מוזר האמת אבל אולי הוא כן צודק? אני אשמח לקרוא מה דעתכם..</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>נקבה</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>25</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ג </t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>AskPeople</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>www.askp.co.il</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>https://www.askp.co.il/question/385010</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>143</v>
+      </c>
+      <c r="M234" t="n">
+        <v>42</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>היי,
+לפני כשנה ניסיתי לפתוח חשבון בבנק הפועלים אינטרנטית. הקליטה התנתקה בדיוק בהגדרת הסיסמא וכנראה נשמרה איזו ברירת מחדל רנדומלית, כי מאז לא הצלחתי להתחבר אבל החשבון קיים. אין בו כסף מן הסתם אז התעלמתי מזה מאז. יש דרך שזה יתנקם בי?</t>
+        </is>
+      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>נקבה</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>18</v>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Michal Barkan Gur</t>
+          <t xml:space="preserve">דניאל </t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>facebook</t>
+          <t>AskPeople</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>www.askp.co.il</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/645409222247058/posts/7743769182410991/</t>
+          <t>https://www.askp.co.il/question/384905</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17912,10 +17937,10 @@
       </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>1021</v>
+        <v>191</v>
       </c>
       <c r="M235" t="n">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -17928,10 +17953,10 @@
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="inlineStr"/>
       <c r="X235" t="n">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="Y235" t="n">
-        <v>1021</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236">
@@ -17940,26 +17965,30 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>שלום לכולם
-לפני השאלה אציין שדיברתי עם יועצים ובכל זאת אשמח לשמוע דעתכם
-יש ברשותי דירה ללא משכנתא שנקנתה עבורי ועכשיו אני גר בה
-ששוויה 1.7
-ירשתי חצי דירה ששוויה 3 מיליון,כלומר 1.5 החלק שלי
-ועוד 250 אלף שח במזומן מקופות השקעה שהייתי המוטב
-איך הכי נכון לדעתכם לנהל או להשקיע את ההון</t>
+          <t>האם אתם חושבים שעומד להיות פה משבר כלכלי שלא נראה כמותו במדינה?
+האם כדאי להוציא את הכסף כמה שיותר מהר מישראל, לפני שהשקל יפול ויהיו הגבלות על הוצאת מטבע זר.
+או שיהיה מצב שהבנקים לא יאפשרו למשוך את הכספים שנמצאים בבנק, כמו שקורה לדוגמה עכשיו בלבנון.
+לא מאמינים, זה בדיוק מה שקרה בשנות ה80 אחרי מלחמת לבנון הראשונה, הוצאות הממשלה תפחו, השקל הישן לא היה שווה שום דבר, הממשלה הגבילה את הוצאת המטבע הזר מהמדינה וכל מה שלא היה צמוד לדולר הפך לחסר ערך.
+רק שנראה שאז המצב הגיאופוליטי של ישראל היה יותר טוב והיה סכוי טוב יותר לצאת מהמשבר, עכשיו נראה שאף גורם עסקי שפוי מחו"ל לא יסכים לעשות עסקים חדשים עם ישראל, מה שיש זה נסיעה על אדי הדלק של ההשקעות שעשו פה בעבר.
+גם לא נראה סביר שהממשלה תצליח או שמעוניינת לעשות מהלך רדיקלי כמו תוכנית הייצוב של 85 כדי לצאת מהמשבר.
+לאור זאת האם הדבר החכם לעשות הוא למכור את הדירה כאשר המחיר שלה בשקלים עוד שווה משהו במטבע זר ולהוציא את החסכונות לחשבון בנק בחו"ל?
+איך עושים את זה?
+האם ניתן פשוט לפתוח חשבון בבנק גדול בחו"ל ולעשות העברה בנקאית של הכסף?
+איך זה עובד מבחינת מיסוי?
+אפשר אחרי זה להוציא כרטיס אשראי לחשבון בנק בחו"ל ולהשתמש בו כרגיל, כמו בכרטיס ביו לאומי?</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>זכר</t>
+          <t>נקבה</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve">יוגב </t>
+          <t xml:space="preserve">ענבר </t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -17974,7 +18003,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/385127</t>
+          <t>https://www.askp.co.il/question/384860</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17989,10 +18018,10 @@
       </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>237</v>
+        <v>899</v>
       </c>
       <c r="M236" t="n">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -18005,10 +18034,10 @@
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
       <c r="X236" t="n">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="Y236" t="n">
-        <v>237</v>
+        <v>899</v>
       </c>
     </row>
     <row r="237">
@@ -18017,7 +18046,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>היי, אחד החברים של אבא שלי אמר לי שאין טעם שיהיה שם כסף, זה היה ממזמן אז אני לא זוכרת מה הסיבה שהוא אמר את זה.. זה נשמע לי קצת מוזר האמת אבל אולי הוא כן צודק? אני אשמח לקרוא מה דעתכם..</t>
+          <t>שלום, אני מעוניינת לקנות רכב ראשון, אח שלי אמר לי שכדאי לי לקנות רכב בסביבות 15,000 שקל וחבר של אבא שלי אמר לי שכדאי לי לקנות רכב בסביבות 30,000 שקל.. באיזה סכום לדעתכם כדאי שאקנה את הרכב?</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -18026,11 +18055,11 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve">ג </t>
+          <t>א</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -18045,7 +18074,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/385010</t>
+          <t>https://www.askp.co.il/question/384721</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -18060,10 +18089,10 @@
       </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M237" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -18076,10 +18105,10 @@
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="inlineStr"/>
       <c r="X237" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y237" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="238">
@@ -18088,8 +18117,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>היי,
-לפני כשנה ניסיתי לפתוח חשבון בבנק הפועלים אינטרנטית. הקליטה התנתקה בדיוק בהגדרת הסיסמא וכנראה נשמרה איזו ברירת מחדל רנדומלית, כי מאז לא הצלחתי להתחבר אבל החשבון קיים. אין בו כסף מן הסתם אז התעלמתי מזה מאז. יש דרך שזה יתנקם בי?</t>
+          <t>הוצאתי רישיון לפני כשנתיים ורכשתי רכב ישן וזול. הרכב עבר שיפוץ ברמה בינונית אחרי מכה מקדימה.
+ואז אני איכשהו פספסתי מדרכה פעם אחת בחניה, ככה שנגעתי עם הפגוש במדרה ונוצר סדק, שהיה קודם אבל פשוט כיסו אותו בזמן השיפוץ ככה לא יראו. עכשיו ישר רואים שהרכב אחרי תאונה.
+מצד שני, הרכב יד 3 כבר, אחרי שהיה אצלי שנתיים הוא עדיין 120 אלף ק"מ. נוסע מעולה, עובר טיפולים כמו שצריך. חוץ מטיפולים ודברים קטנים היה במוסך פעם אחת. שנתון 2010 ונוסע כמו חדש. חסכוני, אמין. מצבר, בלמים וצמיגים חדשים.
+אז אני מתלבט. מצד אחד אני רוצה רכב יותר חדש ביום מן הימים. כי לרכב שלי אין מוליטימידה נורמלית, אין חיישני רוורס, אין מוביל איי, אין "פינוקים" והוא נראה טרנטה ישנה. טוב שיש דיבורית עם חיבור בלו תוס אז יש מוזיקה מהטלפון.
+מצד שני, לך תמכור רכב כזה. רואים עליו שהוא אחרי תאונה. לא איזה משהו מפחיד, אבל לא נראה לי שמישהו ירצה לקנות אוטו שעבר תאונה. אולי עדיף לנצל את הרכב "עד הסוף" כלומר לנהוג בו עד שהוא יגיע למצב של הורדה מהכביש עקב התיישנות?
+מה עדיף?</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -18098,7 +18131,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -18117,7 +18150,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/384905</t>
+          <t>https://www.askp.co.il/question/384618</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -18132,10 +18165,10 @@
       </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>191</v>
+        <v>759</v>
       </c>
       <c r="M238" t="n">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -18148,10 +18181,10 @@
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
       <c r="X238" t="n">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="Y238" t="n">
-        <v>191</v>
+        <v>759</v>
       </c>
     </row>
     <row r="239">
@@ -18160,30 +18193,29 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>האם אתם חושבים שעומד להיות פה משבר כלכלי שלא נראה כמותו במדינה?
-האם כדאי להוציא את הכסף כמה שיותר מהר מישראל, לפני שהשקל יפול ויהיו הגבלות על הוצאת מטבע זר.
-או שיהיה מצב שהבנקים לא יאפשרו למשוך את הכספים שנמצאים בבנק, כמו שקורה לדוגמה עכשיו בלבנון.
-לא מאמינים, זה בדיוק מה שקרה בשנות ה80 אחרי מלחמת לבנון הראשונה, הוצאות הממשלה תפחו, השקל הישן לא היה שווה שום דבר, הממשלה הגבילה את הוצאת המטבע הזר מהמדינה וכל מה שלא היה צמוד לדולר הפך לחסר ערך.
-רק שנראה שאז המצב הגיאופוליטי של ישראל היה יותר טוב והיה סכוי טוב יותר לצאת מהמשבר, עכשיו נראה שאף גורם עסקי שפוי מחו"ל לא יסכים לעשות עסקים חדשים עם ישראל, מה שיש זה נסיעה על אדי הדלק של ההשקעות שעשו פה בעבר.
-גם לא נראה סביר שהממשלה תצליח או שמעוניינת לעשות מהלך רדיקלי כמו תוכנית הייצוב של 85 כדי לצאת מהמשבר.
-לאור זאת האם הדבר החכם לעשות הוא למכור את הדירה כאשר המחיר שלה בשקלים עוד שווה משהו במטבע זר ולהוציא את החסכונות לחשבון בנק בחו"ל?
-איך עושים את זה?
-האם ניתן פשוט לפתוח חשבון בבנק גדול בחו"ל ולעשות העברה בנקאית של הכסף?
-איך זה עובד מבחינת מיסוי?
-אפשר אחרי זה להוציא כרטיס אשראי לחשבון בנק בחו"ל ולהשתמש בו כרגיל, כמו בכרטיס ביו לאומי?</t>
+          <t>אני כרגע בהליך גירושין נמצא בנתיים ביחידת דיור של קרוב משפחה ועומד לצאת משם עוד שבוע כי הוא מכניס לשם דיירים . הדירה שבה גרתי עם אשתי ו3 הילדים שלי היא שכורה עוד 3 חודשים גם היא יוצאת מהדירה הרכוש המשותף ימכר ונגמר הסיפור
+כרגע יש לי איזשהו סכום כסף בצד שמצד 1 בלתי אפשרי לקנות איתו דירה אבל קרוואן כן
+נמאס לי להוציא סכומים גבוהים על שכירות שכנראה יחד עם המזונות ושאר ההוצאות אני לא יוכל לעמוד בהם לאורך זמן וזה יוביל למצב שאני אמצא את עצמי בבית של ההורים או ברחוב
+בגלל זה חשבתי על האופציה של הקרוואן
+אני רוצה לשמוע מאנשים שגרים או גרו בקרוואן
+כמה הוצאות בחודש יש להם על המים והחשמל מהגנרטור ואיך אתם מסתדרים מבחינת מציאת מקום חנייה בתוך שטח העיר , כי אני מעדיף להיות בתוך העיר ושגם לילדים יהיה יותר קרוב
+ויש לי שאלה שמופנת בעיקר לדיירי קרוואנים מהצפון מה אתם עושים במצב של נפילות טילים ?
+אני מתכוון כרגע להשאר בצפון קרוב לילדים
+הקרוואן שאני שוכל לקנות הוא מינבוס שהוסב לקרוואן מדגם מרצדס ספרינטר שנת 2005 עם מערכת חשמל סולארית מקלחת ושירותים אורגנים
+איך הדגם הזה מבחינת צריכת דלק ושאר עלויות ההחזקה ואם כדאי בכלל ללכת על קרוואן נגרר ?</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">ענבר </t>
+          <t xml:space="preserve">אנונימי </t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -18198,7 +18230,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/384860</t>
+          <t>https://www.askp.co.il/question/384489</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -18213,10 +18245,10 @@
       </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>899</v>
+        <v>850</v>
       </c>
       <c r="M239" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -18229,10 +18261,10 @@
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="inlineStr"/>
       <c r="X239" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Y239" t="n">
-        <v>899</v>
+        <v>850</v>
       </c>
     </row>
     <row r="240">
@@ -18241,7 +18273,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>שלום, אני מעוניינת לקנות רכב ראשון, אח שלי אמר לי שכדאי לי לקנות רכב בסביבות 15,000 שקל וחבר של אבא שלי אמר לי שכדאי לי לקנות רכב בסביבות 30,000 שקל.. באיזה סכום לדעתכם כדאי שאקנה את הרכב?</t>
+          <t>אנחנו גרים בבית די רגיל, חוץ מזה שהמרפסת ענקית ושם יש ספות
+ומקום בשבילי, מיטה ארון וזה לא ממש חדר כי אין דלת, תקרה או קירות אבל יש וילונות כאלה וזכוכיות
+כשחם לי אני פורשת שמיכה בצד של המטבח כי הוא ענקי והספות בחוץ וחם שם, ואני פשוט נרדמת ככה בלי כרית, מיטה וכו ובלי בלאגן
+זה די מסובך אבל העירייה לא מסכימים לעשות שם חדר ולי אין ממש מקום אחר לישון בו, וכשחם לי מתחיל לכאוב לי הראש וממש חם לי בקיץ
+וההורים שלי צועקים עליי שאני לא יכולה לישון פשוט ככה וזה לא בסדר אבל אין לי מקום אחר ואני לא יכולה לישון בחדר של אח שלי כי אין שם מקום, וממש מסריח שם והוא משחק בפלסטיישן ומרעיש ממש
+מי לדעתכם צודק?</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -18250,11 +18287,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>א</t>
+          <t xml:space="preserve">אנונימית </t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -18269,7 +18306,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/384721</t>
+          <t>https://www.askp.co.il/question/381515</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -18284,10 +18321,10 @@
       </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>152</v>
+        <v>474</v>
       </c>
       <c r="M240" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -18300,10 +18337,10 @@
       <c r="V240" t="inlineStr"/>
       <c r="W240" t="inlineStr"/>
       <c r="X240" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="Y240" t="n">
-        <v>152</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241">
@@ -18312,25 +18349,23 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>הוצאתי רישיון לפני כשנתיים ורכשתי רכב ישן וזול. הרכב עבר שיפוץ ברמה בינונית אחרי מכה מקדימה.
-ואז אני איכשהו פספסתי מדרכה פעם אחת בחניה, ככה שנגעתי עם הפגוש במדרה ונוצר סדק, שהיה קודם אבל פשוט כיסו אותו בזמן השיפוץ ככה לא יראו. עכשיו ישר רואים שהרכב אחרי תאונה.
-מצד שני, הרכב יד 3 כבר, אחרי שהיה אצלי שנתיים הוא עדיין 120 אלף ק"מ. נוסע מעולה, עובר טיפולים כמו שצריך. חוץ מטיפולים ודברים קטנים היה במוסך פעם אחת. שנתון 2010 ונוסע כמו חדש. חסכוני, אמין. מצבר, בלמים וצמיגים חדשים.
-אז אני מתלבט. מצד אחד אני רוצה רכב יותר חדש ביום מן הימים. כי לרכב שלי אין מוליטימידה נורמלית, אין חיישני רוורס, אין מוביל איי, אין "פינוקים" והוא נראה טרנטה ישנה. טוב שיש דיבורית עם חיבור בלו תוס אז יש מוזיקה מהטלפון.
-מצד שני, לך תמכור רכב כזה. רואים עליו שהוא אחרי תאונה. לא איזה משהו מפחיד, אבל לא נראה לי שמישהו ירצה לקנות אוטו שעבר תאונה. אולי עדיף לנצל את הרכב "עד הסוף" כלומר לנהוג בו עד שהוא יגיע למצב של הורדה מהכביש עקב התיישנות?
-מה עדיף?</t>
+          <t>אז ככה התחלתי לצאת עם לוחם ביחידה מובחרת, יצאנו כבר כמה פעמים והוא הכי חמוד בעולם ומשקיע
+וכזה ויש חיבור ממש,
+עד עכשיו זה הסתדר לנו והוא יצא כל הזמן אבל עכשיו חוזר להילחם ליותר מחודש
+ואני יודעת שהוא באמת מעוניין בי ולא מדבר כבר עם אחרות גם אבל עכשיו זה חודש של נתק לפנינו אפילו הודעות לא יהיה והייתה לנו שיחה על המצב והוא אמר שלא נעים לו ממני ושאל מה נעשה ואני באמת מבחינתי הבהרתי שאני מוכנה לחכות כי אני חושבת שהוא שווה את זה אבל אני ממש לא יודעת איך לעבור את התקןפה הזאת ואני מפחדת שאחרי חודש הוא פתאום לא ירצה יותר ובכללי שהכל יידפק בגלל זה..</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>זכר</t>
+          <t>נקבה</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t xml:space="preserve">דניאל </t>
+          <t xml:space="preserve">אנונימית </t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -18345,7 +18380,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/384618</t>
+          <t>https://www.askp.co.il/question/379702</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -18360,10 +18395,10 @@
       </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
-        <v>759</v>
+        <v>437</v>
       </c>
       <c r="M241" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -18376,10 +18411,10 @@
       <c r="V241" t="inlineStr"/>
       <c r="W241" t="inlineStr"/>
       <c r="X241" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="Y241" t="n">
-        <v>759</v>
+        <v>437</v>
       </c>
     </row>
     <row r="242">
@@ -18388,16 +18423,10 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>אני כרגע בהליך גירושין נמצא בנתיים ביחידת דיור של קרוב משפחה ועומד לצאת משם עוד שבוע כי הוא מכניס לשם דיירים . הדירה שבה גרתי עם אשתי ו3 הילדים שלי היא שכורה עוד 3 חודשים גם היא יוצאת מהדירה הרכוש המשותף ימכר ונגמר הסיפור
-כרגע יש לי איזשהו סכום כסף בצד שמצד 1 בלתי אפשרי לקנות איתו דירה אבל קרוואן כן
-נמאס לי להוציא סכומים גבוהים על שכירות שכנראה יחד עם המזונות ושאר ההוצאות אני לא יוכל לעמוד בהם לאורך זמן וזה יוביל למצב שאני אמצא את עצמי בבית של ההורים או ברחוב
-בגלל זה חשבתי על האופציה של הקרוואן
-אני רוצה לשמוע מאנשים שגרים או גרו בקרוואן
-כמה הוצאות בחודש יש להם על המים והחשמל מהגנרטור ואיך אתם מסתדרים מבחינת מציאת מקום חנייה בתוך שטח העיר , כי אני מעדיף להיות בתוך העיר ושגם לילדים יהיה יותר קרוב
-ויש לי שאלה שמופנת בעיקר לדיירי קרוואנים מהצפון מה אתם עושים במצב של נפילות טילים ?
-אני מתכוון כרגע להשאר בצפון קרוב לילדים
-הקרוואן שאני שוכל לקנות הוא מינבוס שהוסב לקרוואן מדגם מרצדס ספרינטר שנת 2005 עם מערכת חשמל סולארית מקלחת ושירותים אורגנים
-איך הדגם הזה מבחינת צריכת דלק ושאר עלויות ההחזקה ואם כדאי בכלל ללכת על קרוואן נגרר ?</t>
+          <t>אז ככה, כל החיים נחשבתי מחונן, כזה עם קליטה מהירה...
+אני שנה רביעית בראיית חשבון עד עכשיו לא הייתי כמעט בשיעורים ותמיד הייתי מגיע לפני מבחן לומד, ומוציא ציון טוב, אפילו מעולה.
+השנה הזו היא לא ככה, אם לא לומדים ומשקיעים ממש אי אפשר לעבור את בחינות המועצה, נכנסתי למוד של לימודים, עזבתי את העבודה ואני מתרכז רק בזה, הבעיה היא שאני באמת לא מצליח להתרכז, אני יושב ימים שלמים בבית בנסיון לחזור על החומר שהיה בשיעור ופשוט לא הולך לי (חם לי, קר לי, יש טלפון, נזכר במליון דברים שרציתי לעשות ולא עשיתי, אני רעב, אני צמא או בקיצור כל דבר חוץ מללמוד) אני מתוסכל מזה ממש וכל יום עושה לעצמי סדר יום ומבטיח שמחר לא יהיה כמו היום... שוב לא הולך לי... יש מישהו שהיה לו בעיה כזו והצליח להתמודד?
+אציין בנוסף שבשיעורים אני מרוכז ממש, ימים שלמים של 13 שעות אני לא יוצא מריכוז שניה (כך שלא נראה לי שהבעיה היא קשב וריכוז)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -18406,11 +18435,11 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">אנונימי </t>
+          <t xml:space="preserve">מיואש </t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -18425,7 +18454,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/384489</t>
+          <t>https://www.askp.co.il/question/268081</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -18440,10 +18469,10 @@
       </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>850</v>
+        <v>647</v>
       </c>
       <c r="M242" t="n">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -18456,10 +18485,10 @@
       <c r="V242" t="inlineStr"/>
       <c r="W242" t="inlineStr"/>
       <c r="X242" t="n">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="Y242" t="n">
-        <v>850</v>
+        <v>647</v>
       </c>
     </row>
     <row r="243">
@@ -18468,12 +18497,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>אנחנו גרים בבית די רגיל, חוץ מזה שהמרפסת ענקית ושם יש ספות
-ומקום בשבילי, מיטה ארון וזה לא ממש חדר כי אין דלת, תקרה או קירות אבל יש וילונות כאלה וזכוכיות
-כשחם לי אני פורשת שמיכה בצד של המטבח כי הוא ענקי והספות בחוץ וחם שם, ואני פשוט נרדמת ככה בלי כרית, מיטה וכו ובלי בלאגן
-זה די מסובך אבל העירייה לא מסכימים לעשות שם חדר ולי אין ממש מקום אחר לישון בו, וכשחם לי מתחיל לכאוב לי הראש וממש חם לי בקיץ
-וההורים שלי צועקים עליי שאני לא יכולה לישון פשוט ככה וזה לא בסדר אבל אין לי מקום אחר ואני לא יכולה לישון בחדר של אח שלי כי אין שם מקום, וממש מסריח שם והוא משחק בפלסטיישן ומרעיש ממש
-מי לדעתכם צודק?</t>
+          <t>טוב אז היי, לפני חודש חגגתי 13 ועוד לא התחלתי להוריד שיער, אני ממש מתביישת לשאול את אמא שלי על זה, אני והיא לא ממש מדברות על דברים כאלה ובכללי לא ממש קרובות, כבר סוף הקיץ ואני ממש מבואסת וכבר לא יודעת מה לעשות, כל הזמן עד עכשיו לבשתי רק מכנסיים ארוכים וסבלתי, חם לי כל כך, וגם לא הלכתי לים ולבריכה אפילו פעם אחת, בנוסף לכל. זה ביום ראשון הזה יש מסיבת בריכה עם כל הכיתה ואני לא יודעת מה לעשות, אין מצב שאני יבוא בלי להוריד שיער, ובנוסף לזה אין לי את הגוף שהכי מתאים, אני די מלאה, 52 קילו, 1.56...
+גם אמא שלי רק מגיעה הביתה מהעבודה והולכת לנוח, אני לא יכולה לדבר איתה בשום הזדמנות....
+בבקשה תעזרו לי ואל תגידו לי להיות עם מכנס קצר בסלון ולהרגיש את השיער ולעשות כאילו זה מפריע, ניסיתי כבר את כל המניפולציות האלו ושום דבר לא עוזר...
+עזרה דחוף.
+בנוסף לזה המשקל שלי בסדר? או שזה חריג?</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -18482,7 +18510,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -18501,7 +18529,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/381515</t>
+          <t>https://www.askp.co.il/question/265618</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -18516,10 +18544,10 @@
       </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="M243" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -18532,10 +18560,10 @@
       <c r="V243" t="inlineStr"/>
       <c r="W243" t="inlineStr"/>
       <c r="X243" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y243" t="n">
-        <v>474</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244">
@@ -18544,10 +18572,13 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>אז ככה התחלתי לצאת עם לוחם ביחידה מובחרת, יצאנו כבר כמה פעמים והוא הכי חמוד בעולם ומשקיע
-וכזה ויש חיבור ממש,
-עד עכשיו זה הסתדר לנו והוא יצא כל הזמן אבל עכשיו חוזר להילחם ליותר מחודש
-ואני יודעת שהוא באמת מעוניין בי ולא מדבר כבר עם אחרות גם אבל עכשיו זה חודש של נתק לפנינו אפילו הודעות לא יהיה והייתה לנו שיחה על המצב והוא אמר שלא נעים לו ממני ושאל מה נעשה ואני באמת מבחינתי הבהרתי שאני מוכנה לחכות כי אני חושבת שהוא שווה את זה אבל אני ממש לא יודעת איך לעבור את התקןפה הזאת ואני מפחדת שאחרי חודש הוא פתאום לא ירצה יותר ובכללי שהכל יידפק בגלל זה..</t>
+          <t>היי, אני בת 16 מהמרכז.
+חום איימים, אני מחום!
+המזגן שלי בחדר 24/7 על 17 מעלות ואני כבר הפסקתי להרגיש אותו, אני מזיעה כל הזמן!!
+התחילה לי הזעת יתר בגיל 14, אני מתקלחת וישר אחרי שאני יוצאת מהמקלחת מתחילה להזיע!
+אני לא מסוגלת יותר!!! גם בחורף אני מזיעה! אני לא יכולה להגיע לבית ספר לא מיוזעת! וזה כולה הליכה של חמש דקות.
+באמת שקשה לי, אני לא יודעת מה לעשות
+מה אפשר לעשות?</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -18556,11 +18587,11 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t xml:space="preserve">אנונימית </t>
+          <t xml:space="preserve">חם לי! </t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -18575,7 +18606,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/379702</t>
+          <t>https://www.askp.co.il/question/256109</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -18590,10 +18621,10 @@
       </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
-        <v>437</v>
+        <v>301</v>
       </c>
       <c r="M244" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -18606,10 +18637,10 @@
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
       <c r="X244" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="Y244" t="n">
-        <v>437</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245">
@@ -18618,23 +18649,25 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>אז ככה, כל החיים נחשבתי מחונן, כזה עם קליטה מהירה...
-אני שנה רביעית בראיית חשבון עד עכשיו לא הייתי כמעט בשיעורים ותמיד הייתי מגיע לפני מבחן לומד, ומוציא ציון טוב, אפילו מעולה.
-השנה הזו היא לא ככה, אם לא לומדים ומשקיעים ממש אי אפשר לעבור את בחינות המועצה, נכנסתי למוד של לימודים, עזבתי את העבודה ואני מתרכז רק בזה, הבעיה היא שאני באמת לא מצליח להתרכז, אני יושב ימים שלמים בבית בנסיון לחזור על החומר שהיה בשיעור ופשוט לא הולך לי (חם לי, קר לי, יש טלפון, נזכר במליון דברים שרציתי לעשות ולא עשיתי, אני רעב, אני צמא או בקיצור כל דבר חוץ מללמוד) אני מתוסכל מזה ממש וכל יום עושה לעצמי סדר יום ומבטיח שמחר לא יהיה כמו היום... שוב לא הולך לי... יש מישהו שהיה לו בעיה כזו והצליח להתמודד?
-אציין בנוסף שבשיעורים אני מרוכז ממש, ימים שלמים של 13 שעות אני לא יוצא מריכוז שניה (כך שלא נראה לי שהבעיה היא קשב וריכוז)</t>
+          <t>שלום, אני מניחה שלחלק מהקוראים זאת תהיה שאלה מוזרה, אבל יש לי בעיה אמיתית שגורמת לי להרגיש חוסר נוחות ליד הבן זוג שלי.
+אני מזיעה לידו לא מעט, אפילו כשלא חם לי ויוצא ממני ריח לא נעים שאני בטוחה שהוא מריח.
+כמובן שכשזה קורה אני ממהרת לשירותים, שוטפת את בית השחי ושמה דאורדורנט, אבל מרוב שזה קורה הרבה אני כבר די מתייאשת.
+אנחנו ביחד שנה וממש לא נעים לי ממנו ובנוסף זה קורה רק כשאנחנו ביחד.. כשאני לבד או אם אנשים אחרים זה לא קורה בכלל.
+למישהו יש מושג מה אפשר לעשות כדי למנוע ריחות של זיעה?
+קשה לי להאמין שזה בגלל משהו שאני אוכלת כי זה קורה רק כשאני עם החבר..</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>זכר</t>
+          <t>נקבה</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t xml:space="preserve">מיואש </t>
+          <t xml:space="preserve">לילי </t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -18649,7 +18682,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/268081</t>
+          <t>https://www.askp.co.il/question/252322</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18664,10 +18697,10 @@
       </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>647</v>
+        <v>448</v>
       </c>
       <c r="M245" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -18680,10 +18713,10 @@
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
       <c r="X245" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="Y245" t="n">
-        <v>647</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246">
@@ -18692,11 +18725,10 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>טוב אז היי, לפני חודש חגגתי 13 ועוד לא התחלתי להוריד שיער, אני ממש מתביישת לשאול את אמא שלי על זה, אני והיא לא ממש מדברות על דברים כאלה ובכללי לא ממש קרובות, כבר סוף הקיץ ואני ממש מבואסת וכבר לא יודעת מה לעשות, כל הזמן עד עכשיו לבשתי רק מכנסיים ארוכים וסבלתי, חם לי כל כך, וגם לא הלכתי לים ולבריכה אפילו פעם אחת, בנוסף לכל. זה ביום ראשון הזה יש מסיבת בריכה עם כל הכיתה ואני לא יודעת מה לעשות, אין מצב שאני יבוא בלי להוריד שיער, ובנוסף לזה אין לי את הגוף שהכי מתאים, אני די מלאה, 52 קילו, 1.56...
-גם אמא שלי רק מגיעה הביתה מהעבודה והולכת לנוח, אני לא יכולה לדבר איתה בשום הזדמנות....
-בבקשה תעזרו לי ואל תגידו לי להיות עם מכנס קצר בסלון ולהרגיש את השיער ולעשות כאילו זה מפריע, ניסיתי כבר את כל המניפולציות האלו ושום דבר לא עוזר...
-עזרה דחוף.
-בנוסף לזה המשקל שלי בסדר? או שזה חריג?</t>
+          <t>אני הרבה זמן שמה לב שאני יותר חרמנית באמצע מחזור, ויותר בא לי לנסות אפילו אנאלי באמצע מחזור
+האם זה בסדר בכלל לרצות סקס באמצע מחזור?
+והאם יש גבר כזה שלא יגעל מזה, ומזה שאני שמנה..
+בבקשה בלי הערות מעליבות , תודה</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -18705,11 +18737,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">אנונימית </t>
+          <t>השמנה</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -18724,7 +18756,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/265618</t>
+          <t>https://www.askp.co.il/question/386882</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18739,10 +18771,10 @@
       </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>626</v>
+        <v>172</v>
       </c>
       <c r="M246" t="n">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -18755,10 +18787,10 @@
       <c r="V246" t="inlineStr"/>
       <c r="W246" t="inlineStr"/>
       <c r="X246" t="n">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Y246" t="n">
-        <v>626</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247">
@@ -18767,26 +18799,23 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>היי, אני בת 16 מהמרכז.
-חום איימים, אני מחום!
-המזגן שלי בחדר 24/7 על 17 מעלות ואני כבר הפסקתי להרגיש אותו, אני מזיעה כל הזמן!!
-התחילה לי הזעת יתר בגיל 14, אני מתקלחת וישר אחרי שאני יוצאת מהמקלחת מתחילה להזיע!
-אני לא מסוגלת יותר!!! גם בחורף אני מזיעה! אני לא יכולה להגיע לבית ספר לא מיוזעת! וזה כולה הליכה של חמש דקות.
-באמת שקשה לי, אני לא יודעת מה לעשות
-מה אפשר לעשות?</t>
+          <t>אני בן אדם מבולבל. נגיד שאני מביא מים לרעב, ולחם לצמא: איזה בן אדם אני? נגיד שאני עובד בחנות בגדים. יש לי לקוח שרוצה חולצה אדומה, ולקוח שרוצה חולצה ירוקה. אני מביא חולצה ירוקה ללקוח
+שרוצה חולצה אדומה, ומביא חולצה אדומה ללקוח שרוצה חולצה ירוקה: איזה בן אדם אני? נגיד שאני עובד בחנות נעליים. יש לי לקוח שרוצה נעליים צהובות, ולקוח שרוצה נעליים כחולות. אני מביא נעליים כחולות ללקוח שרוצה נעליים צהובות, ומביא
+נעליים צהובות ללקוח שרוצה נעליים כחולות: איזה בן
+אדם אני? איזה בן אדם מבולבל אני ואיך אפסיק להיות אדם כזה?</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>נקבה</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve">חם לי! </t>
+          <t>לא ניתן להבנה</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -18801,7 +18830,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/256109</t>
+          <t>https://www.askp.co.il/question/386881</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18816,10 +18845,10 @@
       </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="M247" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
@@ -18832,10 +18861,10 @@
       <c r="V247" t="inlineStr"/>
       <c r="W247" t="inlineStr"/>
       <c r="X247" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Y247" t="n">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="248">
@@ -18844,12 +18873,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>שלום, אני מניחה שלחלק מהקוראים זאת תהיה שאלה מוזרה, אבל יש לי בעיה אמיתית שגורמת לי להרגיש חוסר נוחות ליד הבן זוג שלי.
-אני מזיעה לידו לא מעט, אפילו כשלא חם לי ויוצא ממני ריח לא נעים שאני בטוחה שהוא מריח.
-כמובן שכשזה קורה אני ממהרת לשירותים, שוטפת את בית השחי ושמה דאורדורנט, אבל מרוב שזה קורה הרבה אני כבר די מתייאשת.
-אנחנו ביחד שנה וממש לא נעים לי ממנו ובנוסף זה קורה רק כשאנחנו ביחד.. כשאני לבד או אם אנשים אחרים זה לא קורה בכלל.
-למישהו יש מושג מה אפשר לעשות כדי למנוע ריחות של זיעה?
-קשה לי להאמין שזה בגלל משהו שאני אוכלת כי זה קורה רק כשאני עם החבר..</t>
+          <t>איך להפסיק התמכרות לסקס?
+אני עובדת ולומדת
+ועדיין אני מחפשת את זה ומקבלת את זה..
+התמכרות לא ככ מפסיקה בקלות
+אני שוקלת אם ללכת לגמילה אבל אני מפחדת שזה יעלה לי מלא כסף..</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -18858,11 +18886,11 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t xml:space="preserve">לילי </t>
+          <t>אלה</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -18877,7 +18905,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/252322</t>
+          <t>https://www.askp.co.il/question/386873</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18892,10 +18920,10 @@
       </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="M248" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -18908,10 +18936,10 @@
       <c r="V248" t="inlineStr"/>
       <c r="W248" t="inlineStr"/>
       <c r="X248" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="Y248" t="n">
-        <v>448</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249">
@@ -18920,38 +18948,36 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>אני הרבה זמן שמה לב שאני יותר חרמנית באמצע מחזור, ויותר בא לי לנסות אפילו אנאלי באמצע מחזור
-האם זה בסדר בכלל לרצות סקס באמצע מחזור?
-והאם יש גבר כזה שלא יגעל מזה, ומזה שאני שמנה..
-בבקשה בלי הערות מעליבות , תודה</t>
+          <t>בריטה ומסנן מים,
+ראיתי בשוםרסל ב200 שקל (2.4 ליטר)
+האם יש אלטרנטיבות? 
+חברות אחרות טובות זולות יותר? סתם מקומות שיותר זולים...זה בכלל עובד הדבר הזה?</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>נקבה</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>34</v>
-      </c>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>השמנה</t>
+          <t>Idan Pozniak</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>AskPeople</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>www.askp.co.il</t>
+          <t>www.facebook.com</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/386882</t>
+          <t>https://www.facebook.com/share/p/rH6A6cuN1qCst1J3/</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18978,10 +19004,10 @@
       <c r="V249" t="inlineStr"/>
       <c r="W249" t="inlineStr"/>
       <c r="X249" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y249" t="n">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="250">
@@ -18990,10 +19016,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>אני בן אדם מבולבל. נגיד שאני מביא מים לרעב, ולחם לצמא: איזה בן אדם אני? נגיד שאני עובד בחנות בגדים. יש לי לקוח שרוצה חולצה אדומה, ולקוח שרוצה חולצה ירוקה. אני מביא חולצה ירוקה ללקוח
-שרוצה חולצה אדומה, ומביא חולצה אדומה ללקוח שרוצה חולצה ירוקה: איזה בן אדם אני? נגיד שאני עובד בחנות נעליים. יש לי לקוח שרוצה נעליים צהובות, ולקוח שרוצה נעליים כחולות. אני מביא נעליים כחולות ללקוח שרוצה נעליים צהובות, ומביא
-נעליים צהובות ללקוח שרוצה נעליים כחולות: איזה בן
-אדם אני? איזה בן אדם מבולבל אני ואיך אפסיק להיות אדם כזה?</t>
+          <t>לאיפה אפשר להתקשר וגם לקבל מענה אנושי? -
+חב' דואר באחד משני סניפים. בטח שלא קיבלתי הודעה, אבל הזנתי מספר מעקב שמתחיל בRR ומסתיים בIL וראיתי שם שהחבילה נמצאת גם בסניף אחד בחיפה וגם בסניף אחר.
+לאן לפנות?
+תודה!</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -19001,27 +19027,25 @@
           <t>זכר</t>
         </is>
       </c>
-      <c r="D250" t="n">
-        <v>21</v>
-      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>לא ניתן להבנה</t>
+          <t>Maor Amsalem</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>AskPeople</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>www.askp.co.il</t>
+          <t>www.facebook.com</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/386881</t>
+          <t>https://www.facebook.com/share/p/geUUPeuBZnFamRTa/</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -19048,10 +19072,10 @@
       <c r="V250" t="inlineStr"/>
       <c r="W250" t="inlineStr"/>
       <c r="X250" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="Y250" t="n">
-        <v>422</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251">
@@ -19060,39 +19084,33 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>איך להפסיק התמכרות לסקס?
-אני עובדת ולומדת
-ועדיין אני מחפשת את זה ומקבלת את זה..
-התמכרות לא ככ מפסיקה בקלות
-אני שוקלת אם ללכת לגמילה אבל אני מפחדת שזה יעלה לי מלא כסף..</t>
+          <t>מעקב אחרי אירועי יום יום לי ולאישתי יש עשרות אירועים\מטלות בחודש אנחנו מחפשים כלי פשוט וקל לנהל את כל המטלות האלה תורים לרופא ימי הולדת מסיבות בגן מסיבות בבית ספר וכו' יש כלי פשוט פשוט שאפשר להזין תאריך שעה ואת פרטי האירוע? הכי פשוט שיש הכי נגיש הכי קל</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>נקבה</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>20</v>
-      </c>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>אלה</t>
+          <t>ניר טיבי</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>AskPeople</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>www.askp.co.il</t>
+          <t>www.facebook.com</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.askp.co.il/question/386873</t>
+          <t>https://www.facebook.com/share/p/MwFrmsMQo5ZadqEo/</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -19119,10 +19137,10 @@
       <c r="V251" t="inlineStr"/>
       <c r="W251" t="inlineStr"/>
       <c r="X251" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Y251" t="n">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
